--- a/Report/jordanReport.xlsx
+++ b/Report/jordanReport.xlsx
@@ -3118,7 +3118,7 @@
     </r>
   </si>
   <si>
-    <t>1.145.0</t>
+    <t>1.146.0</t>
   </si>
   <si>
     <t>{"status":"ok","data":[{"country_name":"Jordan","country_code":"JO","api_url":"https://jordan.uat.wuamerigo.com"}],"code":0}</t>
@@ -3134,22 +3134,22 @@
     <t>{"developer_id":"30d9c37d7fa3a9ea534c90251771a3c272571e69924b318e9f13a87105bb31b6","dev_type":"web","dev_name":"Chrome 80.0.3987.149","os":"Mac OS X 10_15_3","time_zone":120}</t>
   </si>
   <si>
-    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"fc6b913da6939d788b8b967d6c6a1cc35d76988845170759e8e658b282471a1e","data":{"terms":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"da6e57c07a070eed75f2acd9e5ec945134d67927874ab6938af8bdeb6642ab35"}</t>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"30b6c6d4965963e2dd5a657a45c4a2e770f520c025f8ab24211e353848b630d0","data":{"terms":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"1feb28384bbd21c1c491cf1a0b291b0be5e673fd420b3470cb5f9dfd1e48e461"}</t>
   </si>
   <si>
     <t>{"key":"siftscience_score_approv","val":1.97}</t>
   </si>
   <si>
-    <t>{"val":0.6,"status":"ok","new_val":1.97}</t>
+    <t>{"val":1.97,"status":"ok","new_val":1.97}</t>
   </si>
   <si>
     <t>{"key":"siftscience_score_reject","val":1.99}</t>
   </si>
   <si>
-    <t>{"val":2,"status":"ok","new_val":1.99}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495"}</t>
+    <t>{"val":1.99,"status":"ok","new_val":1.99}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0"}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"configurations":{"supportPhone":"080022303","supportEmail":"wu.support@jkbank.com.jo","siftScienceKey_prod":"268d092133","siftScienceKey_dev":"268d092133","payProcessor":"eFAWATEERcom","myReceivers":true,"lang":"en","headersSteps":["estimate","receiver","review"],"headerMenuLinks":[{"url":"https://www.westernunion.com/global-service/track-transfer","title":"Track Transfer"},{"url":"https://www.westernunion.com/jo/en/find-locations.html","title":"Find Locations"},{"url":"https://locations.westernunion.com/search/jordan/?ref=home_nogeo&amp;t=Jordan+Kuwait+Bank&amp;q=city%3AJordan%3Bcountry%3AJO&amp;searchType=name&amp;country=JO&amp;city=Jordan","title":"Find Locations for verification"},{"url":"https://www.westernunion.com/jo/en/frequently-asked-questions.html","title":"Customer Support"},{"url":"/verification_page","title":"Profile verification"}],"ga":"UA-82113578-30","footersSend":[{"url":"https://www.westernunion.com/jo/en/send-money-to-philippines.html","title":"Send money to Philippines"},{"url":"https://www.westernunion.com/jo/en/send-money-to-uk.html","title":"Send money to United Kingdom"},{"url":"https://www.westernunion.com/jo/en/send-money-to-usa.html","title":"Send money to USA"},{"url":"https://www.westernunion.com/jo/en/send-money-to-uae.html","title":"Send money to UAE"}],"footers":[{"url":"https://www.westernunion.com/jo/en/home.html","title":"Home"},{"url":"https://corporate.westernunion.com/index.html","title":"About us"},{"url":"https://www.westernunion.com/jo/en/contact-us.html","title":"Contact us"},{"url":"https://www.westernunion.com/jo/en/frequently-asked-questions.html","title":"Help"},{"url":"https://www.westernunion.com/jo/en/fraud-awareness.html","title":"Fraud awareness"},{"url":"http://ir.westernunion.com/investor-relations/default.aspx","title":"Investor relations"},{"url":"https://corporate.westernunion.com/careers/index.html","title":"Careers"},{"url":"https://foundation.westernunion.com/index.html","title":"Western Union foundation"},{"url":"https://www.westernunion.com/jo/en/become-agent.html","title":"Become an agent"},{"url":"https://www.westernunion.com/jo/en/legal/intellectual-property.html","title":"Intellectual property"},{"url":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","title":"Online Privacy statement"},{"url":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","title":"Terms and conditions"},{"url":"https://www.westernunion.com/jo/en/legal/terms-profile.html","title":"Terms of profile creation"},{"url":"https://www.westernunion.com/jo/en/legal/privacy-statement-ar.html","title":"Online Privacy statement (Arabic)"},{"url":"https://www.westernunion.com/jo/en/legal/terms-conditions-ar.html","title":"Terms and conditions (Arabic)"},{"url":"https://www.westernunion.com/jo/en/legal/terms-profile-ar.html","title":"Terms of profile creation (Arabic)"}],"doubleClickTags":{"web/sign_up/done":"DC-3388366/jopri002/jopri00+standard","web/sign_up":"DC-3388366/jopri002/jopri0+standard","web/send_money/success":"DC-3388366/jopri000/jopri0+transactions","web/send_money/rejected":"DC-3388366/jopri000/jopri00+transactions","web/send_money/receiver":"DC-3388366/jopri0/jopri00+standard","web/send_money/in_progress":"DC-3388366/jopri001/jopri0+transactions","web/send_money/hold":"DC-3388366/jopri001/jopri0+transactions","web/send_money":"DC-3388366/jopri0/jopri0+standard","web/profile":"DC-3388366/jopri00/jopri001+standard"},"defaultHeaderLang":{"value":"en","title":"English"},"defaultHeaderCounty":{"value":"JO","title":"Jordan"},"countryCode":"JO","appMarket":{"ios":"https://apps.apple.com/jo/app/westernunion-jo-money-transfer/id1459023219","aos":"https://play.google.com/store/apps/details?id=com.westernunion.moneytransferr3app.jo"},"amoutDigitsLimit":5},"code":0}</t>
@@ -3161,127 +3161,127 @@
 </t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","page":"web/sign_up"}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","page":"web/sign_up"}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/sign_up"]}},"forms":[{"type":"body","title":"Register","sections":[{"header":[{"visibility":"visible","value":"Profile information","id":"label_70900","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"email","title":"Login/Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","icon":"email","error_msg":"Please check email","class":"edit","actions":[]},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"}]},{"header":[{"value":"Personal information. Please enter information as it appears on your ID.","id":"label_77511","class":"label"}],"footer":[],"content":[{"type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"hidden","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar","actions":[]},{"visibility":"visible","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"},{"oper":"clearValue","items":["id_type"]}]},{"visibility":"visible","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"}]},{"header":[{"value":"Contact information","id":"label_96214","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":{"type":"mob","number":"","country_code":"962"},"title":"Mobile phone","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress","oper":"validate"}]},{"title":"Add Street address (optional)","id":"expander_2","class":"expander","actions":[{"oper":"toggleVisible","items":["street2"]}]},{"visibility":"hidden","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{2,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress","oper":"validate"}]},{"visibility":"visible","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress","oper":"validate"}]},{"visibility":"visible","type":"text","title":"Zip code (optional)","required":false,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"}]},{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_15214","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","title":"ID Expiration Date","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"}]},{"header":[{"value":"Other information","id":"label_27329","class":"label"}],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/jo/en/legal/terms-profile.html ]Western Union terms of profile creation[/url] and [url=https://www.westernunion.com/jo/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_agree","error_msg":"Mandatory field","class":"check","actions":[]},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":false,"regexp":"^(true|false)$","id":"i_enroll","class":"check","actions":[{"oper":"toggleEnabled","items":["expander_3","mywu"]}]},{"title":"Keep me up to date with new Western Union services and other special offers. Communications may be by email, text, phone, online and post. I can edit these settings at any time in my profile.","required":false,"regexp":"^(true|false)$","id":"keep","class":"check"},{"visibility":"visible","value":"submit","type":"submit","title":"Next","id":"button","extra":{"validate":false},"class":"button"},{"value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button"}],"content":[{"visibility":"visible","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"}]}],"object_id":"profile","id":"web/sign_up"}]},"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"country_birthday"}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"country_birthday"}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AX","title":"Aland Islands"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AQ","title":"Antarctica"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AM","title":"Armenia"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"VW","title":"Bonaire, Sint Eustatius and Saba"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BV","title":"Bouvet Island"},{"value":"BR","title":"Brazil"},{"value":"IO","title":"British Indian Ocean Territory"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CX","title":"Christmas Island"},{"value":"CC","title":"Cocos (Keeling) Islands"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CG","title":"Congo, People's Republic of"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"CU","title":"Cuba"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"NY","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"CD","title":"Democratic Republic of Congo"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"TL","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FO","title":"Faroe Islands"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"PF","title":"French Polynesia"},{"value":"TF","title":"French Southern Territories"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GL","title":"Greenland"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GG","title":"Guernsey"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HM","title":"Heard Island and McDonald Islands"},{"value":"VA","title":"Holy See (Vatican)"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IR","title":"Iran, Islamic Republic of"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IM","title":"Isle of Man"},{"value":"IL","title":"Israel"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JE","title":"Jersey"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KV","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NC","title":"New Caledonia"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"NF","title":"Norfolk Island"},{"value":"KP","title":"North Korea"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PN","title":"Pitcairn"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"SH","title":"Saint Helena, Ascension and Tristan da Cunha"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"PM","title":"Saint Pierre and Miquelon"},{"value":"VC","title":"Saint Vincent and The Grenadines"},{"value":"WS","title":"Samoa"},{"value":"SM","title":"San Marino"},{"value":"ST","title":"Sao Tome and Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"GS","title":"South Georgia and the South Sandwich Islands"},{"value":"KR","title":"South Korea"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"SX","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SJ","title":"Svalbard and Jan Mayen"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"TG","title":"Togo"},{"value":"TK","title":"Tokelau"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UM","title":"United States Minor Outlying Islands"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (U.S.)"},{"value":"WF","title":"Wallis and Futuna"},{"value":"EH","title":"Western Sahara"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"country_nationality"}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"country_nationality"}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AX","title":"Aland Islands"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AQ","title":"Antarctica"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AM","title":"Armenia"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"VW","title":"Bonaire, Sint Eustatius and Saba"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BV","title":"Bouvet Island"},{"value":"BR","title":"Brazil"},{"value":"IO","title":"British Indian Ocean Territory"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CX","title":"Christmas Island"},{"value":"CC","title":"Cocos (Keeling) Islands"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CG","title":"Congo, People's Republic of"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"CU","title":"Cuba"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"NY","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"CD","title":"Democratic Republic of Congo"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"TL","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FO","title":"Faroe Islands"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"PF","title":"French Polynesia"},{"value":"TF","title":"French Southern Territories"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GL","title":"Greenland"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GG","title":"Guernsey"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HM","title":"Heard Island and McDonald Islands"},{"value":"VA","title":"Holy See (Vatican)"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IR","title":"Iran, Islamic Republic of"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IM","title":"Isle of Man"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JE","title":"Jersey"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KV","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NC","title":"New Caledonia"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"NF","title":"Norfolk Island"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PN","title":"Pitcairn"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"SH","title":"Saint Helena, Ascension and Tristan da Cunha"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"PM","title":"Saint Pierre and Miquelon"},{"value":"VC","title":"Saint Vincent and The Grenadines"},{"value":"WS","title":"Samoa"},{"value":"SM","title":"San Marino"},{"value":"ST","title":"Sao Tome and Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"GS","title":"South Georgia and the South Sandwich Islands"},{"value":"KR","title":"South Korea"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"SX","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SJ","title":"Svalbard and Jan Mayen"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"TG","title":"Togo"},{"value":"TK","title":"Tokelau"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UM","title":"United States Minor Outlying Islands"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (U.S.)"},{"value":"WF","title":"Wallis and Futuna"},{"value":"EH","title":"Western Sahara"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"country"}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"id_issuer"}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"id_type","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"","country_code":"962"},"country":"JO","id_issuer":"","answer":""}}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"country"}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"id_issuer"}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"id_type","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"","country_code":"962"},"country":"JO","id_issuer":"","answer":""}}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"disabled","id":"id_number"}],"form_id":"web/sign_up"}],"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"street1","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","id_issuer":"","answer":""}}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"street1","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","id_issuer":"","answer":""}}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"set","item_id":"city","form_id":"web/sign_up","field":"error","data":false},{"type":"set","item_id":"street1","form_id":"web/sign_up","field":"error","data":false},{"type":"set","item_id":"street2","form_id":"web/sign_up","field":"error","data":false}],"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"street2","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","id_issuer":"","answer":""}}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"city","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","id_issuer":"","answer":""}}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"id_type","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_issuer":"","answer":""}}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"street2","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","id_issuer":"","answer":""}}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"city","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","id_issuer":"","answer":""}}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"id_type","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_issuer":"","answer":""}}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"Passport","title":"Passport"},{"value":"Syrian refugee card","title":"Syrian refugee card"}]}],"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"id_type","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","answer":""}}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"id_type","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","answer":""}}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","page_name":"/sign_up","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"visible","required":true,"id":"id_issuer","actions":[{"url":"/items/countries","oper":"loadOnClick"}]},{"visibility":"visible","required":false,"id":"id_issuer_date"},{"visibility":"visible","required":true,"id":"expiration"},{"visibility":"visible","type":"text","title":"ID Number","required":true,"regexp":"^[a-zA-Z0-9]{4,20}$","length":20,"id":"id_number"}],"form_id":"web/sign_up"}],"code":0}</t>
   </si>
   <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"id_issuer","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","answer":""}}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","form_id":"web/sign_up","item_id":"id_number","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"day":"01","month":"01","year":"1975"},"id_number":"3862959","answer":""}}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","id":"web/sign_up","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"713862959","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"day":"01","month":"01","year":"1975"},"id_number":"3862959","expiration":{"day":"01","month":"01","year":"2026"},"question":"What is your favorite pet's name?","answer":"strike","i_agree":true,"i_enroll":true,"keep":true,"button":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"events":{"kochava":[{"event_key":"SIGNUP COMPLETED","data":{"app_version":"1.145.0","ACCOUNT_ID":125776}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/sign_up","phone_verified":"false","page_name":"/sign_up","marketing_opt-in":"true","logged_in":"false","account_verified":"false","account_id":125776,"TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/done","grid":{"type":"one_column","header":"HeaderLogin","components":{"center":["web/sign_up/done"]}},"forms":[{"type":"body","title":"You're almost done!","sections":[{"header":[],"footer":[{"visibility":"visible","value":"log_in","type":"submit","title":"Log In","id":"button_log_in","class":"button"},{"value":"[b]Note[/b]: Always check the address bar of any page asking for your username or password to make sure it can be trusted. Western Union will never ask for your username or password in an email, and you should never disclose personal information such as your sign-in credentials, bank information, or credit card number over email.","id":"label_33624","class":"label"}],"content":[{"value":"We've sent a verification link to your email. Please click it to complete the registration process. If you haven't yet received the email, please check your spam and junk mail folder or we can re-send the link again.","id":"label_8618","class":"label"},{"visibility":"visible","value":"re_send","type":"submit","title":"Re-send link","id":"button_re_send","class":"button"}]}],"id":"web/sign_up/done"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"cf21716c718f845e91c1fd9837f4374f557bf6afb2df74db4989a4a3fa57f495","page":"web/sign_up/done","lang":"en"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/sign_up","phone_verified":"false","page_name":"/sign_up/done","marketing_opt-in":"true","logged_in":"false","account_verified":"false","account_id":125776,"TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/done","grid":{"type":"one_column","header":"HeaderLogin","components":{"center":["web/sign_up/done"]}},"forms":[{"type":"body","title":"You're almost done!","sections":[{"header":[],"footer":[{"visibility":"visible","value":"log_in","type":"submit","title":"Log In","id":"button_log_in","class":"button"},{"value":"[b]Note[/b]: Always check the address bar of any page asking for your username or password to make sure it can be trusted. Western Union will never ask for your username or password in an email, and you should never disclose personal information such as your sign-in credentials, bank information, or credit card number over email.","id":"label_33624","class":"label"}],"content":[{"value":"We've sent a verification link to your email. Please click it to complete the registration process. If you haven't yet received the email, please check your spam and junk mail folder or we can re-send the link again.","id":"label_8618","class":"label"},{"visibility":"visible","value":"re_send","type":"submit","title":"Re-send link","id":"button_re_send","class":"button"}]}],"id":"web/sign_up/done"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex_oktqwspkm@gmail.com","key":"email_verified","val": "true"}</t>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"id_issuer","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","answer":""}}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","form_id":"web/sign_up","item_id":"id_number","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"day":"01","month":"01","year":"1975"},"id_number":"8492306","answer":""}}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","id":"web/sign_up","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","first_name":"Oleksii","last_name":"Merzliakov","expander_1":true,"middle_name":"middle","birth":{"day":"01","month":"01","year":"1975"},"country_birthday":"AF","country_nationality":"AL","phone":{"type":"mob","number":"718492306","country_code":"380"},"country":"JO","street1":"street 1","expander_2":true,"street2":"sreet 2","city":"city","zip_code":"12354","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"day":"01","month":"01","year":"1975"},"id_number":"8492306","expiration":{"day":"01","month":"01","year":"2026"},"question":"What is your favorite pet's name?","answer":"strike","i_agree":true,"i_enroll":true,"keep":true,"button":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"events":{"kochava":[{"event_key":"SIGNUP COMPLETED","data":{"app_version":"1.146.0","ACCOUNT_ID":125786}}]},"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/sign_up","phone_verified":"false","page_name":"/sign_up","marketing_opt-in":"true","logged_in":"false","account_verified":"false","account_id":125786,"TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/done","grid":{"type":"one_column","header":"HeaderLogin","components":{"center":["web/sign_up/done"]}},"forms":[{"type":"body","title":"You're almost done!","sections":[{"header":[],"footer":[{"visibility":"visible","value":"log_in","type":"submit","title":"Log In","id":"button_log_in","class":"button"},{"value":"[b]Note[/b]: Always check the address bar of any page asking for your username or password to make sure it can be trusted. Western Union will never ask for your username or password in an email, and you should never disclose personal information such as your sign-in credentials, bank information, or credit card number over email.","id":"label_33624","class":"label"}],"content":[{"value":"We've sent a verification link to your email. Please click it to complete the registration process. If you haven't yet received the email, please check your spam and junk mail folder or we can re-send the link again.","id":"label_8618","class":"label"},{"visibility":"visible","value":"re_send","type":"submit","title":"Re-send link","id":"button_re_send","class":"button"}]}],"id":"web/sign_up/done"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4504f37486ba6739c3d6b0935fa61fc7edec94bd993cdb43d3849fe90435d0e0","page":"web/sign_up/done","lang":"en"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/sign_up","phone_verified":"false","page_name":"/sign_up/done","marketing_opt-in":"true","logged_in":"false","account_verified":"false","account_id":125786,"TransactionID":""},"_time_zone":120},"data":{"next_page":"web/sign_up/done","grid":{"type":"one_column","header":"HeaderLogin","components":{"center":["web/sign_up/done"]}},"forms":[{"type":"body","title":"You're almost done!","sections":[{"header":[],"footer":[{"visibility":"visible","value":"log_in","type":"submit","title":"Log In","id":"button_log_in","class":"button"},{"value":"[b]Note[/b]: Always check the address bar of any page asking for your username or password to make sure it can be trusted. Western Union will never ask for your username or password in an email, and you should never disclose personal information such as your sign-in credentials, bank information, or credit card number over email.","id":"label_33624","class":"label"}],"content":[{"value":"We've sent a verification link to your email. Please click it to complete the registration process. If you haven't yet received the email, please check your spam and junk mail folder or we can re-send the link again.","id":"label_8618","class":"label"},{"visibility":"visible","value":"re_send","type":"submit","title":"Re-send link","id":"button_re_send","class":"button"}]}],"id":"web/sign_up/done"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex_nusjzfooh@gmail.com","key":"email_verified","val": "true"}</t>
   </si>
   <si>
     <t>{"val":false,"status":"ok","new_val":"true"}</t>
   </si>
   <si>
-    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"a41740be7c0f417ef9dcff0a816041328c9b2aebc0ff671ae8b5bff7f232c1e2","data":{"terms":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"6e4184250349f6c814c0ee476a209128345615f95bbf8807b53b9d13815e4de6"}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","page":"web/log_in"}</t>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"73acb2b9d47f4f557761479560975966f3cf56eb5a03e4c349c1028872ceffb2","data":{"terms":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"533c1d11db140d09b0456610a2d9d103bc26e877827f71fc9e89e1b3aea4a4b8"}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","page":"web/log_in"}</t>
   </si>
   <si>
     <t>{"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/log_in","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/log_in"]}},"forms":[{"type":"body","title":"Log In","sections":[{"visibility":"visible","id":"s_civil_id","header":[],"footer":[{"visibility":"visible","type":"submit","title":"Log In","id":"button_submit","class":"button"}],"content":[{"visibility":"visible","value":"web/sign_up","type":"page","title":"Register","id":"sign_up_link","class":"link"},{"visibility":"visible","type":"email","title":"Login/Email address:","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+\\/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+\\/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","icon":"email","error_msg":"Please enter your email address","class":"edit","actions":[]},{"visibility":"visible","value":"","type":"password","title":"Password:","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"password","icon":"secure","error_msg":"Please enter your password","class":"edit"},{"visibility":"visible","type":"link","title":"Forgot password?","required":false,"id":"forgot","class":"button","align":"right"}]}],"id":"web/log_in"}]},"code":0}</t>
   </si>
   <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/log_in","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"false","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile","error_msg":"Your telephone number is still not verified. You can verify it [iurl=/profile/edit]here[/iurl]"}],"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"visibility":"visible","value":"To make an online transfer your identity must be verified","style":{"padding":"10px","marginTop":-20,"margin-right":0,"margin-left":0,"font-size":"18px","color":"white","background-color":"#368ABB"},"id":"label_289121","class":"label","align":"center"},{"visibility":"visible","value":"Local regulations require that we verify your identity. We have several options below to verify your identity.","style":{"font-size":"15px"},"id":"label_28911","class":"label","align":"left"},{"visibility":"visible","type":"link","title":"Show me the verification options","style":{"margin":"20px 20px 0px"},"required":false,"id":"button_verified","class":"button","align":"center"}]},{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","page":"web/profile"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile","error_msg":"Your telephone number is still not verified. You can verify it [iurl=/profile/edit]here[/iurl]"}],"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"visibility":"visible","value":"To make an online transfer your identity must be verified","style":{"padding":"10px","marginTop":-20,"margin-right":0,"margin-left":0,"font-size":"18px","color":"white","background-color":"#368ABB"},"id":"label_289121","class":"label","align":"center"},{"visibility":"visible","value":"Local regulations require that we verify your identity. We have several options below to verify your identity.","style":{"font-size":"15px"},"id":"label_28911","class":"label","align":"left"},{"visibility":"visible","type":"link","title":"Show me the verification options","style":{"margin":"20px 20px 0px"},"required":false,"id":"button_verified","class":"button","align":"center"}]},{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","form_id":"web/profile","item_id":"transaction"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","page":"web/profile/edit"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middle","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"rwer - ' err","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"rwer - ' err","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"rwer - ' err","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"ktcdjonsxuhuhxzaqhsugikzhtlbrrs","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"rwer - ' err","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"first_name","error_msg":"Please check first name"}],"code":0}</t>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/log_in","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"false","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile","error_msg":"Your telephone number is still not verified. You can verify it [iurl=/profile/edit]here[/iurl]"}],"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"visibility":"visible","value":"To make an online transfer your identity must be verified","style":{"padding":"10px","marginTop":-20,"margin-right":0,"margin-left":0,"font-size":"18px","color":"white","background-color":"#368ABB"},"id":"label_289121","class":"label","align":"center"},{"visibility":"visible","value":"Local regulations require that we verify your identity. We have several options below to verify your identity.","style":{"font-size":"15px"},"id":"label_28911","class":"label","align":"left"},{"visibility":"visible","type":"link","title":"Show me the verification options","style":{"margin":"20px 20px 0px"},"required":false,"id":"button_verified","class":"button","align":"center"}]},{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","page":"web/profile"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile","error_msg":"Your telephone number is still not verified. You can verify it [iurl=/profile/edit]here[/iurl]"}],"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"visibility":"visible","value":"To make an online transfer your identity must be verified","style":{"padding":"10px","marginTop":-20,"margin-right":0,"margin-left":0,"font-size":"18px","color":"white","background-color":"#368ABB"},"id":"label_289121","class":"label","align":"center"},{"visibility":"visible","value":"Local regulations require that we verify your identity. We have several options below to verify your identity.","style":{"font-size":"15px"},"id":"label_28911","class":"label","align":"left"},{"visibility":"visible","type":"link","title":"Show me the verification options","style":{"margin":"20px 20px 0px"},"required":false,"id":"button_verified","class":"button","align":"center"}]},{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","form_id":"web/profile","item_id":"transaction"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","page":"web/profile/edit"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middle","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"rwer - ' err","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"rwer - ' err","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"rwer - ' err","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"oytomovfpvhmcbxohovpwprmsjwhkhh","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"rwer - ' err","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"first_name","error_msg":"Please check first name"}],"code":0}</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseCode - PASS
@@ -3290,7 +3290,7 @@
 </t>
   </si>
   <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"qwqw\","qwe": "fuck",","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"qwqw\","qwe": "fuck",","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseCode - PASS
@@ -3298,115 +3298,115 @@
 </t>
   </si>
   <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"qwqw","qwe": "fuck","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"rwer - ' err","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"qwe","error_msg":"Excessive parameter"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"rwer - ' err","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"rwer - ' err","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"gwlqvilubcifmaafvlxylsfgnfmthwnlqeam","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"last_name","error_msg":"Please check last name"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"qwqw\","qwe": "fuck",","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"qwqw","qwe": "fuck","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"qwe","error_msg":"Excessive parameter"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"1111111111","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"phone","error_msg":"Invalid country code and phone number combination. Please check your phone number"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"etswfrfbwsxurmhetvbzvrjvtbicigdtcqxpvpbkwfkbdctovcaedsbunktxhmphkvhipjugwoztwcgauymedbdstubhxdizlxbwjvlbiasphbubgcvwptixchkmmretdpf","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"occupation","error_msg":"Please check occupation"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"alphanumeric 2 - , . / '","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"alphanumeric 2 - , . / '","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"rsgnqzftkocdkuxrthrywbnvlbvfcezeymllymmeqdzvhwzkrpwozmpbppflccqqsvnhpnmoaxgggnqavsbeo","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"alphanumeric 2 \ , . / '","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"alphanumeric 2 &lt; , . / '","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"hxeobtyhsathlfktfatjcqkktqwgncimdkxxngxtxvinxhfpmxjhjvnahnzqaxeovcklkmolroalwdqpsrqty","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"alphanumeric 2 " , . / '","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"alphanumeric 2 \ , . / '","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"ci ty","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"ci ty","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"&gt;city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"city","error_msg":"Please select city"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":".city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":".city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"&lt;city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"\city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"city","zip_code":"123qw","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"123qw","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"strysity","street2":"sreet 2","city":"strysity","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"strysity","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"strysity","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"qwqw","qwe": "fuck","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"rwer - ' err","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"qwe","error_msg":"Excessive parameter"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"rwer - ' err","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"rwer - ' err","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"ozhhubtktebrwzmnfoxzogqzrxfhflqqiwnm","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"last_name","error_msg":"Please check last name"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"qwqw\","qwe": "fuck",","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"qwqw","qwe": "fuck","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"qwe","error_msg":"Excessive parameter"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"1111111111","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"phone","error_msg":"Invalid country code and phone number combination. Please check your phone number"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"radrzfuvzprlmlkwcjvnkdijexvfelqovdcgzlkzgpzkqbarwfpvjoluowuugtafrkuaulpybqjvvicklujputabbzpzrrnfqrmggcducscirnuncsdgdvjkvpzxhztfmtm","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=rwer+-+%27+err&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"rwer - ' err","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"occupation","error_msg":"Please check occupation"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"false","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit","error_msg":"Personal information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 1","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"alphanumeric 2 - , . / '","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"alphanumeric 2 - , . / '","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"arrvsqqlxwarmnyqahuvqgvhycpmpcquylpanahsdcqcljqhjxslrvupztwsxejmprqrdhwlvgmagmxyspfoy","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"alphanumeric 2 \ , . / '","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"alphanumeric 2 &lt; , . / '","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"oxsomxkcxikxborqvhwiedeshsdaphnvkviuwvmuyhtikwfjnqnxknteqddzhjvadgrybfmtlytossgjbgrld","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"alphanumeric 2 " , . / '","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"alphanumeric 2 \ , . / '","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"ci ty","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"ci ty","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"&gt;city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"city","error_msg":"Please select city"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":".city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":".city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"&lt;city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"\city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"city","zip_code":"123qw","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"123qw","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"strysity","street2":"sreet 2","city":"strysity","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"strysity","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"strysity","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseCode - PASS
@@ -3415,148 +3415,148 @@
 </t>
   </si>
   <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"3862959","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/identification","phone_verified":"false","page_name":"/profile/edit/identification","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/identification","error_msg":"Identification details has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"9fd07dc9f32ce782957a7a57fd3b08ca1fc37b9f8542b6456dace15fb586668d","id":"web/profile/edit/marketing","data":{"opt_in_for_email":true,"opt_in_for_phone":"true","opt_in_for_directmail":"true","opt_in_for_sms":"true","button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/marketing","phone_verified":"false","page_name":"/profile/edit/marketing","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/marketing","error_msg":"Information updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"3862959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex_oktqwspkm@gmail.com","key":"account_verified","val": "true"}</t>
-  </si>
-  <si>
-    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex_oktqwspkm@gmail.com","key":"phone_verified","val": "true"}</t>
-  </si>
-  <si>
-    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"ae67b632fb1d6afa20bdccc3652051bd6c1268615ef26aa0fc0adeea6672fea0","data":{"terms":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"ed2d4f0fd8dc59bfa0fc748bbd3d6d2fa87637c0da1153cff9699ff6da58638c"}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/log_in"}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/log_in","data":{"email":"alex_oktqwspkm@gmail.com","password":"Password_01","button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/profile"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","form_id":"web/profile","item_id":"transaction"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/profile/edit"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/marketing","error_msg":"Information updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"disabled","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"disabled","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"hidden","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"disabled","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"disabled","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"disabled","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"disabled","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"disabled","value":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"hidden","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"hidden","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":true,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"disabled","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"disabled","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"disabled","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"disabled","value":"***2959","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"disabled","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"hidden","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"changedDisabledfield","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:8ceb81b"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"changedDisabledfield","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:291ad9c"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"changedDisabledfield","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:e13079f"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"UA","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:e368841"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"testoccupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:3b55228"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"phone","error_msg":"User with same data already exists"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"UA","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:100ccac"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"2010","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"713862959","country_code":"380"},"button_update":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"birth","error_msg":"Please check date of birth"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/identification","data":{"country_nationality":"UA","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"3862959","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:e5d7fda"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Drive","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"3862959","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"id_type","error_msg":"Mandatory field"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"UA","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"3862959","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:062298e"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1999","month":"01","day":"01"},"id_number":"3862959","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:660e3a6"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"7777777","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:b3a7bc1"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"3862959","expiration":{"year":"2027","month":"01","day":"01"},"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:fa2f835"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/profile/edit/marketing","data":{"opt_in_for_email":true,"opt_in_for_phone":"true","opt_in_for_directmail":"true","opt_in_for_sms":"true","button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/marketing","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:298c5df"}],"code":0}</t>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/location","data":{"country":"JO","street1":"street 12","street2":"sreet 2","city":"city","zip_code":"12354","button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/location","phone_verified":"false","page_name":"/profile/edit/location","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/location","error_msg":"Contact information has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"8492306","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/identification","phone_verified":"false","page_name":"/profile/edit/identification","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/identification","error_msg":"Identification details has been updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"9e41c3843174070b279931816a8c769f78c80a83c8e63c8421554804e03137c9","id":"web/profile/edit/marketing","data":{"opt_in_for_email":true,"opt_in_for_phone":"true","opt_in_for_directmail":"true","opt_in_for_sms":"true","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":false,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":false},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit/marketing","phone_verified":"false","page_name":"/profile/edit/marketing","marketing_opt-in":true,"logged_in":"true","account_verified":"false","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/marketing","error_msg":"Information updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"visible","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"visible","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"hidden","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"visible","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"visible","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"visible","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"visible","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"disabled","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":"${*r/profile/edit/location.zip_code_req}","regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"visible","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"visible","value":"8492306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"visible","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex_nusjzfooh@gmail.com","key":"account_verified","val": "true"}</t>
+  </si>
+  <si>
+    <t>{"object_id" : "profile","name_key" : "email","name_value": "alex_nusjzfooh@gmail.com","key":"phone_verified","val": "true"}</t>
+  </si>
+  <si>
+    <t>{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"status":"ok","sessionData":{"user":{"currencies":["JOD"],"country_name":"Jordan","country_code":"JO"},"timeout":900,"limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"auth":false,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"","page_name":"/log_in","marketing_opt-in":"false","logged_in":"false","TransactionID":""},"_time_zone":120},"deviceKey":"03100d000759aa859d8b573227f61474df85fc2839c841b71199fb501452c11b","data":{"terms":"https://www.westernunion.com/jo/en/legal/terms-conditions.html","privacy":"https://www.westernunion.com/jo/en/legal/privacy-statement.html","extra":{"translations":{"hold_title":"Online Payment Confirmation","card_JM":"Credit/debit card","wu_ios":"Western Union IOS App","card_ending_in":"","find_location":"Find Locations","relationship_to_receiver":"Relationship to receiver","est_total":"Estimated total to receiver","source":"Source of funds","mywu_rewards":"My WU Rewards","success_info_JM":"Your online payment was accepted. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}","beneficiar":"Beneficiary's code","success_message":"{payProcessor} payment was successful - your money has been sent","pay_by":"Payment by","payment":"Payment","nf_title":"This is not the page you are looking for","yes":"Yes","knet_ref":"Ref. No.","money_avaliable":"Money available","title":"Payment Details","reject_name":"Dear, {first_name} {last_name}","review":"Review","knet_date":"Date","td_details_JM":"Payment details","add_info":"Additional information","november":"November","no_history":"No transactions yet","total":"Total","customer_support":"Customer Support","cash_agent":"Cash at a WU agent location","account_not_verified":"Congratulations! You are one step away from sending money online 24/7. In order to make an online transaction, we will have to verify your profile identity. __link to KYC_options_page","reject_message":"Your money transfer was rejected","view_receipt":"View receipt","details_send":"Sending details","month":"Month","amount":"Transfer amount","serviceInMin":"Service: In minutes","send_money":"Send Money","promocode":"Promocode","exp_expires":"Session expires in:","tax":"Tax (GCT)","year":"Year","card_AE":"Real Time Account Debit","receive_amount":"Receive amount","account_overview":"History","card_CI":"Direct debit","hold_name":"Dear, {first_name} {last_name}","success_message_JM":"Payment was successful - your money has been sent","phone_num":"Phone number","greet":"Thank you for being My WU member. Send money with Western Union online now and earn points for eligible transactions. You can use your points to redeem up ... fee discount for your transactions!","free_google_app":"FREE - In Google App","summary_review":"Summary","exchange_wu":"WU Payout rate","wu_aos":"Western Union Android App","receipt":"This is not a receipt","exp_message":"As a security precaution, session end after 15 minutes of inactivity. Click OK to continue your current session.","received_from":"Received from","top_corridors":"Frequently selected countries","total_points":"Total points","menu":"Menu","not_member":"You are not a member yet","october":"October","trans_hist":"Transaction history","success_info":"Your Online payment is complete. To pick up the money {first_name} {middle_name} {last_name} will have to bring a government-issued photo ID and tracking number (MTCN) {mtcn} to any Western Union location in the expected payout area. If you require more information, please email {email} or call us at {phone}, please check with your carrier for charges and local rates.","open_receipt":"Receipt","security_code":"Security Code","send_to":"Sending money to","progress_title":"Your Receipt","td_ref":"Ref. No.","get_app":"Get App","exp_title":"Your session will expire soon","april":"April","partners_text_KW":"This service is offered through","points_redeem":"Redeem points","td_amount":"Paid Amount","reject_info":"Your transaction was rejected. We apologize for the inconvenience. For further information, please email wu.support@jkbank.com.jo or call us at 080022303, please check with your carrier for charges and local rates.","partners_text_JM":"This service is offered through","partners_licensed_bh":"Licensed and Regulated by Central Bank of Bahrain","december":"December","partners_licensed":"42-56 Harbour Street, Downtown, Kingston, Jamaica West Indies","debit_card_JM":"Credit/debit card","relation":"Relationship to receiver","january":"January","knet_p_amount":"Paid Amount(KWD)","county_tax":"TTHU","method_pay":"Payment method","otp_code":"Code","partners_text_BH":"This service is offered through","verified":"Profile verified","country_code":"Country code","knet_status":"Status","general_consumption":"General Consumption","edit":"Edit Profile","trans_fee":"WU Transfer fee","delete":"Delete","delivery":"Delivery method","nf_desc":"Sorry, unless you really were hoping to find our 404 message, the page you were looking for has been moved or deleted. You can get back to safety using one of these links","march":"March","success_title":"Your Receipt","slogan":"My world. My way.","phone_error_msg":"Phone number","td_pay_code":"Response code","estimate":"Estimate","td_status":"Status","apn_success_info":"If you require more information, please email {email} or call us at {phone}, Please check with your carrier for charges and local rates.","sign_out":"Sign out","points_title":"Available My WU points:","success_message_apn":"Your money is on its way","show":"show","subtitle":"Click \"PRINT\" to retain a copy of your receipt","nf_home":"Home Page","no":"No","gold_card":"[b]Gold Card[/b] program - now [b]My WU[/b], with all the same benefits","edit_resend":"Edit &amp; resend","receivers_amount":"Receivers amount","req":"Password Requirements","method_delivery":"Delivery method","my_receivers":"My Receivers","track_no":"Tracking No (MTCN)","share_mtcn":"Share MTCN","continue_to_review":"Continue to review","edit_KW":"View Profile","in_min":"In minutes","trans_amount":"Transfer amount","estimated_receive_amount":"Estimated receive amount","copyright":"Western Union Holdings, Inc. All Rights Reserved","june":"June","details_receive":"Receiving details","status":"Status","money_sent_to":"Money sent to","show_details":"Show details","location":"Payout location","exchange":"Exchange rate","editReceiver":"Edit","service":"Service","hi":"Hi","recipient":"Recipient","progress_subtitle":"Click \"PRINT\" to retain a copy of your receipt","register":"Register","discount":"Promotional discount","phone_no_verify":"Your telephone numberis still not verified.","td_pid":"Payment ID","success_info_apn":"If you require more information, please email wu.support@jkbank.com.jo or call us at 080022303.","card_num":"Card number","track_num":"Tracking number","resend_amount":"Resend amount","card":"Debit card","add_new_receiver":"Add a new receiver","free_ios_app":"FREE - In App Sore","debit_card_AE":"Direct debit (UAE PGS)","send_amount":"Send amount","time":"Delivery time","mtcn":"MTCN","alert_remove_receiver":"Are you sure you want to delete this receiver?","estimated_exchange":"Estimated exchange rate","td_date":"Date","online_receipt":"Online Receipt","nf_care":"Customer Care","since":"Member since:","hide_details":"Hide details","hide":"hide","august":"August","date":"Date","estimate_price":"Estimate Price","hold_subtitle":"Click \"PRINT\" to retain a copy of your receipt","cash_at_loc":"Cash at a WU agent location","apn_success_message":"Your money is on its way","max_image_size":"File size can't exceed ","security_code_hint":"These are the last 3 digits on the back of you card","mywu_title":"My WU number:","print":"Print","login":"Log In","sending_money_to":"Sending money to:","fee":"In minutes, fee:","february":"February","mob_phone":"Mobile phone","july":"July","track_transf":"Track Transfer","profile_overview":"Profile","sent_to":"Sent to","may":"May","conv_fee":"Convenience fee","nf_send":"Send Money","td_details":"{payProcessor} transfer details","min_image_size":"File size can't be less ","limits_title":"Your current limits:","alert_info":"You will see important alerts and notifications here.","receive_as":"Money received as","pick_up":"Pick up cash","show_full_history":"Show full history","knet_pid":"Payment ID","card_info":"Accepted credit/debit card types:","send_code":"Send Code","point_earned":"Point earned","summary":"Your summary","success_name":"Dear, {first_name} {last_name}","september":"September","day":"Day","debit_card":"Credit/Debit Card","not_verified":"Profile not verified","partners_text":"This service is offered through","state_tax":"VAT","no_hist":"Your transaction history will appear here.","td_details_AE":"{payProcessor} PAYMENT DETAILS","success_subtitle":"Click \"PRINT\" to retain a copy of your receipt","card_expire":"","receiver":"Receiver","sign_up":"Sign up","not_selected":"Not selected","verify_code":"Verify Code","terms_of_profile_creation":"Terms of profile creation","history":"History","knet_details":"Jordan Kuwait bank transfer details","card_error":"We're sorry, but we can't accept this card for payment. Please try another card","redeem_points":"Redeem points now","purpose":"Purpose of transaction"},"right_to_left":"false"}},"code":0,"challenge":"3c5ee65de849c9167b3f08b3f000b7c38b972956872ac29fcfa41485d16f9165"}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/log_in"}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/log_in","data":{"email":"alex_nusjzfooh@gmail.com","password":"Password_01","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"true","page_name":"/log_in","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/profile"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/profile","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/profile/right"],"modal":["web/profile/join","web/profile/link"],"left":["web/profile"]}},"forms":[{"type":"body","sections":[{"header":[{"type":"ProfileMain","id":"divider_32102","class":"divider"},{"visibility":"visible","id":"transaction","extra":{"history_info":"/items/history_info","buttons":["receipt","repeat","mtcn"]},"class":"history","actions":[{"url":"/items/att_share","oper":"modal"},{"url":"/items/transaction_history","oper":"init"}]}],"footer":[],"content":[]}],"object_id":"profile","id":"web/profile"},{"type":"modal","title":"My WU [sup]SM[/sup] Rewards","sections":[{"header":[],"footer":[],"content":[{"value":"Join Western Union's My WU rewards program","id":"label_28911","class":"label","align":"center"},{"title":"YES, I’d like to join the My WU program.  I acknowledge I have read the My WU program [url=https://cdn.mywu.com/legal/jo/en/tc.pdf]Terms and Conditions[/url] and I am aware I will receive service notifications about the program to the contact details provided.","required":true,"regexp":"^(true)$","id":"i_agree","class":"check","actions":[{"oper":"toggleEnabled","items":["submit"]}]},{"visibility":"disabled","type":"submit","title":"Join My WU","id":"submit","class":"button"}]}],"id":"web/profile/join"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[]}],"id":"web/profile/link"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"},{"type":"body","sections":[{"header":[{"type":"ProfileSummary","id":"divider_72490","extra":{"mywu_error_msg":"Your My WU[sup]SM[/sup] account was not matched with your WU.com account. If you would like to add your existing My WU account to your online profile, please retry. If you need assistance, please contact Customer Care by email at mea.customer@westernunion.com"},"class":"divider"}],"footer":[],"content":[]}],"id":"web/profile/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","form_id":"web/profile","item_id":"transaction"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/log_in","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/profile/edit"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"type":"success","id":"web/profile/edit/marketing","error_msg":"Information updated"}],"data":{"next_page":"web/profile/edit","grid":{"type":"two_column","title":"Profile information","header":"HeaderStart","components":{"right":["web/profile/edit/identification","web/profile/edit/marketing","web/profile/edit/password"],"left":["web/profile/edit","web/profile/edit/location","web/profile/edit/questions"]}},"forms":[{"type":"body","sections":[{"header":[{"value":"Personal information","id":"label_62322","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"Oleksii","type":"text","title":"First name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit"},{"visibility":"hidden","title":"Add middle name (optional)","id":"expander_1","class":"expander","actions":[{"oper":"toggleVisible","items":["middle_name"]}]},{"visibility":"disabled","value":"middlename","type":"text","title":"Middle name","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit"},{"visibility":"disabled","value":"Merzliakov","type":"text","title":"Last name","required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit"},{"visibility":"hidden","value":{"year":"1975","month":"01","day":"01"},"title":"Date of birth","required":true,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"birth","extra":{"min":{"y":-100},"max":{"y":-18,"m":0,"d":0}},"error_msg":"Please check date of birth","class":"calendar"},{"visibility":"disabled","value":"1975-01-01","title":"Date of birth","id":"birth_disabled","class":"edit"},{"visibility":"disabled","value":"AF","type":"country","title":"Place of birth","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"country_birthday","error_msg":"Please select place of birth","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"disabled","value":"AL","type":"country","title":"Nationality","required":true,"options":[],"id":"country_nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/country_nationality","oper":"init"}]},{"visibility":"disabled","value":"occupation","type":"text","title":"Occupation (Optional)","required":false,"regexp":"^[a-zA-Z0-9]{2,40}$","id":"occupation","error_msg":"Please check occupation","class":"edit"},{"visibility":"disabled","value":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"hidden","title":"We will verify your mobile number by sending you an SMS","id":"otp_verify","extra":{"verify_code_url":"items/otp_verify","send_code_url":"items/otp_send"},"class":"otpVerify","actions":[{"oper":"focus"}]},{"visibility":"hidden","value":"submit","type":"submit","title":"Update personal information","id":"button_update","class":"button"}]}],"id":"web/profile/edit"},{"type":"body","title":"","sections":[{"header":[{"value":"Contact details","id":"label_94217","class":"label"}],"footer":[],"content":[{"visibility":"disabled","value":"JO","type":"country","title":"Country","required":false,"regexp":"^[A-Z]{2}$","options":[],"id":"country","error_msg":"Please select country","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"visible","value":"street 12","type":"text","title":"Street address 1","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street1","error_msg":"Street address 1 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"${*r/profile/edit/location.street2}","value":"sreet 2","type":"text","title":"Street address 2","required":false,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"street2","error_msg":"Street address 2 field cannot be empty and should be between 3 and 84 symbols long","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"city","type":"text","title":"City","required":true,"regexp":".*(?=^([a-zA-Z 0-9, '.\\/-]{3,84})$).*(?=^((?!^[0-9 ]{1,}$).)*$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"city","error_msg":"Please select city","class":"edit","actions":[{"url":"/items/validate_adress?preloader=false","oper":"validate"}]},{"visibility":"visible","value":"12354","type":"text","title":"Zip code (optional)","required":true,"regexp":"^[0-9a-zA-Z]{1,9}$","id":"zip_code","error_msg":"Please check Zip/Postal code. It should consist from 1 to 9 symbols and no special characters","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update contact Information","id":"button_update","class":"button"}]}],"id":"web/profile/edit/location"},{"type":"body","title":"","sections":[{"header":[{"value":"Identification details.Please enter information as it appears on your ID.","id":"label_66250","class":"label"}],"footer":[],"content":[{"visibility":"hidden","value":"AL","title":"ID Expiration Date","id":"country_nationality","class":"edit"},{"visibility":"disabled","value":"Passport","title":"ID Type","required":true,"id":"id_type","error_msg":"Please check ID Type","class":"select","actions":[{"url":"/items/validate_id_type","oper":"init"},{"url":"/items/validate_id_type","oper":"loadOnClick"},{"oper":"clearValue","items":["id_issuer","id_issuer_date","id_number","expiration"]},{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"disabled","value":"AL","type":"country","title":"ID Issuer","required":false,"options":[],"id":"id_issuer","error_msg":"Please check ID Issuer","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"disabled","value":{"year":"1975","month":"01","day":"01"},"title":"ID Issue date","required":false,"id":"id_issuer_date","extra":{"min":{"y":-100},"max":{"y":0,"m":0,"d":0}},"class":"calendar"},{"visibility":"disabled","value":"***2306","type":"text","title":"ID Number","required":true,"id":"id_number","error_msg":"Please check ID Number","class":"edit","actions":[{"url":"/items/validate_id_number","oper":"validate"}]},{"visibility":"disabled","value":{"year":"2026","month":"01","day":"01"},"title":"ID Expiration Date","required":false,"regexp":"^[0-9]{4}-[0-9]{2}-[0-9]{2}$","id":"expiration","extra":{"min":{"y":0,"m":0,"d":0},"max":{"y":20}},"error_msg":"Please check expiration date","class":"calendar"},{"visibility":"hidden","value":"submit","type":"submit","title":"Update identification details","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/identification"},{"type":"body","title":"","sections":[{"header":[{"value":"Password","id":"label_31271","class":"label"}],"footer":[],"content":[{"visibility":"visible","type":"password","title":"Current password","required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","id":"old_password","icon":"secure","error_msg":"Please check password","class":"edit"},{"required":true,"regexp":".*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]).*(?=.*[A-Z]).*(?=.*[a-z]).*(?=^.{8,16}$).*(?=.*[a-z]).*(?=.*[A-Z]).*(?=.*[0-9]).*(?=.*[ !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]^_`\\{\\|\\}~]).*^[a-zA-Z0-9 !#\\$%&amp;'\\(\\)\\*\\+,-\\./:;&lt;=&gt;\\?@\\[\\]\\^_`\\{\\|\\}~]{8,16}$","options":[{"title":"8-16 characters","regexp":"^.{8,16}$"},{"title":"1 lowercase letter","regexp":".*[a-z].*"},{"title":"1 UPPERCASE letter","regexp":".*[A-Z].*"},{"title":"1 number and 1 special character","regexp":".*[0-9].*"},{"title":"1 special character","regexp":".*[ !#$%&amp;'\\(\\)*+,-./:;&lt;=&gt;?@\\[\\]\\^_`{|}~].*"}],"id":"password","extra":{"title2":"Confirm password","title1":"Password"},"error_msg":"Please check password","class":"password"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update password","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/password"},{"type":"body","title":"","sections":[{"visibility":"visible","header":[{"value":"Marketing content","id":"label_66250","class":"label"}],"footer":[],"content":[{"value":"WU Offers/Promotions/News &amp; Products Alerts. From time to time I would like to receive promotional offers and other informational materials from Western Union by:","id":"label_66250","class":"label"},{"value":"true","title":"Email","required":false,"regexp":"^(true|false)$","id":"opt_in_for_email","class":"check"},{"value":"true","title":"Telephone call","required":false,"regexp":"^(true|false)$","id":"opt_in_for_phone","class":"check"},{"value":"true","title":"Direct mail","required":false,"regexp":"^(true|false)$","id":"opt_in_for_directmail","class":"check"},{"value":"true","title":"Text/SMS","required":false,"regexp":"^(true|false)$","id":"opt_in_for_sms","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/marketing"},{"type":"body","title":"","sections":[{"header":[{"visibility":"visible","value":"Security question","title":"label_title","id":"label_id_1506086740999","class":"label"}],"footer":[],"content":[{"visibility":"visible","value":"","title":"Security question","required":true,"options":[{"value":"Where did you spend childhood summers?","title":"Where did you spend childhood summers?"},{"value":"What is your favorite pet's name?","title":"What is your favorite pet's name?"},{"value":"What is your mother's maiden name?","title":"What is your mother's maiden name?"},{"value":"What street did you grow up on?","title":"What street did you grow up on?"},{"value":"What is your best friend's name?","title":"What is your best friend's name?"},{"value":"What is your favorite hobby?","title":"What is your favorite hobby?"},{"value":"What is your favorite movie?","title":"What is your favorite movie?"},{"value":"What is your place of birth?","title":"What is your place of birth?"},{"value":"What is your favorite TV show?","title":"What is your favorite TV show?"},{"value":"What is your favorite teacher's name?","title":"What is your favorite teacher's name?"},{"value":"What is your high school mascot?","title":"What is your high school mascot?"}],"id":"question","class":"select"},{"visibility":"visible","value":"","type":"text","title":"Answer","required":true,"regexp":"^[a-zA-Z0-9\\s]{1,30}$","id":"answer","error_msg":"Please check answer","class":"edit"},{"visibility":"disabled","value":"submit","type":"submit","title":"Update","id":"button_submit","class":"button"}]}],"id":"web/profile/edit/questions"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"changedDisabledfield","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:f5fd589"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"changedDisabledfield","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:892dd6d"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"changedDisabledfield","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:be3cb3b"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"UA","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:d29b054"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"testoccupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:8732da5"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"phone","error_msg":"User with same data already exists"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"1975","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"UA","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:4cc25da"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit","data":{"first_name":"Oleksii","middle_name":"middlename","last_name":"Merzliakov","birth":{"year":"2010","month":"01","day":"01"},"birth_disabled":"1975-01-01","country_birthday":"AF","country_nationality":"AL","occupation":"occupation","phone":{"type":"mob","plus":"+","number":"718492306","country_code":"380"},"button_update":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"birth","error_msg":"Please check date of birth"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/identification","data":{"country_nationality":"UA","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"8492306","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:f11d860"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Drive","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"8492306","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"id_type","error_msg":"Mandatory field"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"UA","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"8492306","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:f53aa9f"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1999","month":"01","day":"01"},"id_number":"8492306","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:fedfc29"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"7777777","expiration":{"year":"2026","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:947e7f5"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/identification","data":{"country_nationality":"AL","id_type":"Passport","id_issuer":"AL","id_issuer_date":{"year":"1975","month":"01","day":"01"},"id_number":"8492306","expiration":{"year":"2027","month":"01","day":"01"},"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/identification","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:8e1242f"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/profile/edit/marketing","data":{"opt_in_for_email":true,"opt_in_for_phone":"true","opt_in_for_directmail":"true","opt_in_for_sms":"true","button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"error","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile","phone_verified":"true","page_name":"/profile","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"error_msg":[{"id":"web/profile/edit/marketing","error_msg":"Due to a technical error we are unable to proceed with your request. Please try again later.","error_code":"am07:df67f9a"}],"code":0}</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseCode - PASS
@@ -3565,46 +3565,46 @@
 </t>
   </si>
   <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/send_money"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/send_money/right"],"left":["web/send_money"]}},"forms":[{"type":"body","title":"Send Money","sections":[{"header":[{"visibility":"hidden","value":"","type":"warning","id":"warning_exception_notify","class":"notify"}],"footer":[{"visibility":"hidden","value":"cash","type":"image","title":"[size=16]How does your receiver want the money?[/size]","required":true,"options":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}],"id":"fundsout","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsout?preloader=true","oper":"loadOnClick"}]},{"visibility":"hidden","value":"bank_transfer","type":"image","title":"[size=16]How would you like to pay?[/size]","required":true,"options":[{"value":"bank_transfer","title":"Bank transfer","icon":"bank"}],"id":"fundsin","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsin?preloader=true","oper":"loadOnClick"}]}],"content":[{"required":true,"regexp":"(^[A-Z0-9]{2}--[A-Z]{3}-[0-9]{1}(|\\.[0-9]{1,})-[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}--[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}$)","id":"payment","extra":{"top_countries":"","frequent_countries":["PH","BD","US","TR","EG"],"api_payment":"/items/sendmoney_fee_web?preloader=true","api_get_currency":"/items/sendmoney_currencies","api_get_countries":"/items/sendmoney_countries"},"class":"sendMoney","actions":[{"oper":"toggleVisible","items":["expander","expander_disclaimers","label_first","second_label","expander_disclaimers_1"]},{"oper":"toggleEnabled","items":["submit"]}]}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500019950162","class":"divider"},{"visibility":"hidden","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"}],"content":[{"visibility":"hidden","title":"Promo code","id":"expander","class":"expander","actions":[{"type":"off","oper":"toggleVisible","items":["promocode"],"id":"expander","class":"expander"}]},{"visibility":"hidden","title":"Enter your promotional discount code","required":false,"regexp":"(^[a-zA-Z0-9\\-]{1,30}$|^My WU® promo code$)","id":"promocode","extra":{"disabled":false,"button_title":"Apply","api_check":"/items/sendmoney_promocode_web"},"error_msg":"Promotional discount code error","class":"inputButton","button_title":"Send"},{"visibility":"hidden","value":"[color=#7FC76C]My WU discount has been applied to your transfer[/color]","title":"label_title","id":"label_promo","class":"label"}]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in ${payment.country_send_name}[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"url":"static/sap/sap_1.png","id":"sap_1","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Set up the transfer online to lock in the fee[sup]1[/sup] and exchange rate.","row":"1","id":"label_72752","class":"label"},{"url":"static/sap/sap_2.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"To pay, go to a participating Western Union[sup]&amp;reg;[/sup] agent location within 24 hours.","row":"2","id":"label_72753","class":"label"},{"url":"static/sap/sap_3.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n3.svg","row":"3","id":"sap_n3","class":"image","align":"center"},{"w":9,"value":"Bring your photo ID, cash, and phone number.","row":"3","id":"label_72754","class":"label"},{"value":"It's that easy. Faster checkout and no paperwork.","id":"label_72755","class":"label","align":"center"},{"visibility":"visible","title":"Don't show me again","required":false,"id":"sap_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/stage_and_pay"},{"type":"body","sections":[{"header":[{"visibility":"visible","type":"Summary","id":"divider_54036","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/right"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","form_id":"web/send_money","item_id":"payment"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"hidden","options":[],"id":"rate"}],"form_id":"web/send_money"},{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BR","title":"Brazil"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CD","title":"Congo, Democratic Republic of"},{"value":"CG","title":"Congo-Brazzaville"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"C2","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"XQ","title":"England"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IL","title":"Israel"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KR","title":"Korea"},{"value":"K1","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"XZ","title":"North Ireland"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"XW","title":"Rota, CNMI"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"VC","title":"Saint Vincent And The Grenadines"},{"value":"XU","title":"Saipan, CNMI"},{"value":"WS","title":"Samoa"},{"value":"ST","title":"Sao Tome And Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"XS","title":"Scotland"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"S1","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"XD","title":"St. Thomas"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"XV","title":"Tinian, CNMI"},{"value":"TG","title":"Togo"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (US)"},{"value":"XR","title":"Wales"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","form_id":"web/send_money","item_id":"payment","data":{"currency_get":"JOD","country_send_code":"FR"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"service_pay":"In minutes","received_as":"Cash at a WU agent location","payment_by":"Bank transfer","fundsout":"cash","fundsin":"bank_transfer","currency_get":"JOD","country_send_name":"France","country_send_code":"FR"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","sender_country":"jo","send_currency":"JOD","receiver_country":"FR","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"bank_transfer","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"hidden","options":[],"id":"rate"},{"visibility":"hidden","value":"","id":"warning_exception_notify"},{"visibility":"visible","value":"cash","options":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}],"id":"fundsout"},{"visibility":"visible","value":"bank_transfer","options":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}],"id":"fundsin"},{"id":"temporary_expander","actions":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"value":{"currency_get":"JOD","country_send_code":"FR","amount_send":"","amount_get":""},"id":"payment"},{"visibility":"visible","id":"button_submit"}],"form_id":"web/send_money"},{"type":"resp","data":[{"value":"EUR","title":"EUR"}]}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","form_id":"web/send_money","item_id":"payment","data":{"promocode":"","country_send_code":"FR","currency_get":"JOD","currency_send":"EUR","amount_get":"11"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Bank transfer","gross_amount":"13.000","fundsout":"cash","fundsin":"bank_transfer","fee":"2.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"bank_transfer","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"bank_transfer"},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{ "token": "202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec", "form_id": "web/send_money", "item_id": "fundsin", "data": { "payment": { "amount_get": "11", "country_send_code": "FR", "amount_send": "12.02", "currency_get": "JOD", "currency_send": "EUR", "currency_send_code": "FR" }, "fundsout": "cash", "fundsin": "stage_and_pay", "temporary_expander": true } }</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"13.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"2.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"payment","form_id":"web/send_money","field":"value","data":{"currency_send_code":"EUR","currency_send":"EUR","currency_get":"JOD","country_send_code":"FR","amount_send":"12.02","amount_get":"11.000"}},{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"stage_and_pay"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{ "token": "202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec", "form_id": "web/send_money", "item_id": "fundsin", "data": { "payment": { "amount_get": "11", "country_send_code": "FR", "amount_send": "12.02", "currency_get": "JOD", "currency_send": "EUR", "currency_send_code": "FR" }, "fundsout": "cash", "fundsin": "stage_and_pay", "temporary_expander": true, "extraData": { "id": "fundsin", "value": "stage_and_pay", "optionsActionsList": [ "modal" ] } } }</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"13.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"2.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":"web/send_money/stage_and_pay"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/send_money/stage_and_pay","data":{"submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"close","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"13.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"2.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/profile/edit","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{},"code":0}</t>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/send_money"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money","grid":{"type":"two_column","header":"HeaderStart","components":{"right":["web/send_money/right"],"left":["web/send_money"]}},"forms":[{"type":"body","title":"Send Money","sections":[{"header":[{"visibility":"hidden","value":"","type":"warning","id":"warning_exception_notify","class":"notify"}],"footer":[{"visibility":"hidden","value":"cash","type":"image","title":"[size=16]How does your receiver want the money?[/size]","required":true,"options":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}],"id":"fundsout","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsout?preloader=true","oper":"loadOnClick"}]},{"visibility":"hidden","value":"bank_transfer","type":"image","title":"[size=16]How would you like to pay?[/size]","required":true,"options":[{"value":"bank_transfer","title":"Bank transfer","icon":"bank"}],"id":"fundsin","class":"radio","align":"horizontal","actions":[{"url":"/items/set_fundsin?preloader=true","oper":"loadOnClick"}]}],"content":[{"required":true,"regexp":"(^[A-Z0-9]{2}--[A-Z]{3}-[0-9]{1}(|\\.[0-9]{1,})-[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}--[A-Z]{3}$|^[A-Z0-9]{2}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}-[0-9]{0,}(|\\.[0-9]{1,})-[A-Z]{3}$)","id":"payment","extra":{"top_countries":"","frequent_countries":["PH","BD","US","TR","EG"],"api_payment":"/items/sendmoney_fee_web?preloader=true","api_get_currency":"/items/sendmoney_currencies","api_get_countries":"/items/sendmoney_countries"},"class":"sendMoney","actions":[{"oper":"toggleVisible","items":["expander","expander_disclaimers","label_first","second_label","expander_disclaimers_1"]},{"oper":"toggleEnabled","items":["submit"]}]}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500019950162","class":"divider"},{"visibility":"hidden","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"}],"content":[{"visibility":"hidden","title":"Promo code","id":"expander","class":"expander","actions":[{"type":"off","oper":"toggleVisible","items":["promocode"],"id":"expander","class":"expander"}]},{"visibility":"hidden","title":"Enter your promotional discount code","required":false,"regexp":"(^[a-zA-Z0-9\\-]{1,30}$|^My WU® promo code$)","id":"promocode","extra":{"disabled":false,"button_title":"Apply","api_check":"/items/sendmoney_promocode_web"},"error_msg":"Promotional discount code error","class":"inputButton","button_title":"Send"},{"visibility":"hidden","value":"[color=#7FC76C]My WU discount has been applied to your transfer[/color]","title":"label_title","id":"label_promo","class":"label"}]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in ${payment.country_send_name}[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money"},{"type":"modal","sections":[{"header":[],"footer":[],"content":[{"url":"static/sap/sap_1.png","id":"sap_1","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Set up the transfer online to lock in the fee[sup]1[/sup] and exchange rate.","row":"1","id":"label_72752","class":"label"},{"url":"static/sap/sap_2.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"To pay, go to a participating Western Union[sup]&amp;reg;[/sup] agent location within 24 hours.","row":"2","id":"label_72753","class":"label"},{"url":"static/sap/sap_3.png","id":"sap_3","class":"image","align":"center"},{"w":1,"url":"static/sap/sap_n3.svg","row":"3","id":"sap_n3","class":"image","align":"center"},{"w":9,"value":"Bring your photo ID, cash, and phone number.","row":"3","id":"label_72754","class":"label"},{"value":"It's that easy. Faster checkout and no paperwork.","id":"label_72755","class":"label","align":"center"},{"visibility":"visible","title":"Don't show me again","required":false,"id":"sap_info","class":"check","align":"center"},{"visibility":"visible","type":"submit","title":"Continue","id":"submit","class":"button"}]}],"id":"web/send_money/stage_and_pay"},{"type":"body","sections":[{"header":[{"visibility":"visible","type":"Summary","id":"divider_54036","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","form_id":"web/send_money","item_id":"payment"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","sender_country":"jo","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"hidden","options":[],"id":"rate"}],"form_id":"web/send_money"},{"type":"resp","data":[{"value":"AF","title":"Afghanistan"},{"value":"AL","title":"Albania"},{"value":"DZ","title":"Algeria"},{"value":"AS","title":"American Samoa"},{"value":"AD","title":"Andorra"},{"value":"AO","title":"Angola"},{"value":"AI","title":"Anguilla"},{"value":"AG","title":"Antigua And Barbuda"},{"value":"AR","title":"Argentina"},{"value":"AW","title":"Aruba"},{"value":"AU","title":"Australia"},{"value":"AT","title":"Austria"},{"value":"AZ","title":"Azerbaijan"},{"value":"BS","title":"Bahamas"},{"value":"BH","title":"Bahrain"},{"value":"BD","title":"Bangladesh"},{"value":"BB","title":"Barbados"},{"value":"BY","title":"Belarus"},{"value":"BE","title":"Belgium"},{"value":"BZ","title":"Belize"},{"value":"BJ","title":"Benin"},{"value":"BM","title":"Bermuda"},{"value":"BT","title":"Bhutan"},{"value":"BO","title":"Bolivia"},{"value":"BA","title":"Bosnia and Herzegovina"},{"value":"BW","title":"Botswana"},{"value":"BR","title":"Brazil"},{"value":"VG","title":"British Virgin Islands"},{"value":"BN","title":"Brunei Darussalam"},{"value":"BG","title":"Bulgaria"},{"value":"BF","title":"Burkina Faso"},{"value":"BI","title":"Burundi"},{"value":"KH","title":"Cambodia"},{"value":"CM","title":"Cameroon"},{"value":"CA","title":"Canada"},{"value":"CV","title":"Cape Verde"},{"value":"KY","title":"Cayman Islands"},{"value":"CF","title":"Central African Republic"},{"value":"TD","title":"Chad"},{"value":"CL","title":"Chile"},{"value":"CN","title":"China"},{"value":"CO","title":"Colombia"},{"value":"KM","title":"Comoros"},{"value":"CD","title":"Congo, Democratic Republic of"},{"value":"CG","title":"Congo-Brazzaville"},{"value":"CK","title":"Cook Islands"},{"value":"CR","title":"Costa Rica"},{"value":"HR","title":"Croatia"},{"value":"AN","title":"Curacao"},{"value":"CY","title":"Cyprus"},{"value":"C2","title":"Cyprus (Northern)"},{"value":"CZ","title":"Czech Republic"},{"value":"DK","title":"Denmark"},{"value":"DJ","title":"Djibouti"},{"value":"DM","title":"Dominica"},{"value":"DO","title":"Dominican Republic"},{"value":"TP","title":"East Timor"},{"value":"EC","title":"Ecuador"},{"value":"EG","title":"Egypt"},{"value":"SV","title":"El Salvador"},{"value":"XQ","title":"England"},{"value":"GQ","title":"Equatorial Guinea"},{"value":"ER","title":"Eritrea"},{"value":"EE","title":"Estonia"},{"value":"ET","title":"Ethiopia"},{"value":"FK","title":"Falkland Islands (Malvinas)"},{"value":"FJ","title":"Fiji"},{"value":"FI","title":"Finland"},{"value":"FR","title":"France"},{"value":"GF","title":"French Guiana"},{"value":"GA","title":"Gabon"},{"value":"GM","title":"Gambia"},{"value":"GE","title":"Georgia"},{"value":"DE","title":"Germany"},{"value":"GH","title":"Ghana"},{"value":"GI","title":"Gibraltar"},{"value":"GR","title":"Greece"},{"value":"GD","title":"Grenada"},{"value":"GP","title":"Guadeloupe"},{"value":"GU","title":"Guam"},{"value":"GT","title":"Guatemala"},{"value":"GN","title":"Guinea"},{"value":"GW","title":"Guinea-Bissau"},{"value":"GY","title":"Guyana"},{"value":"HT","title":"Haiti"},{"value":"HN","title":"Honduras"},{"value":"HK","title":"Hong Kong"},{"value":"HU","title":"Hungary"},{"value":"IS","title":"Iceland"},{"value":"IN","title":"India"},{"value":"ID","title":"Indonesia"},{"value":"IQ","title":"Iraq"},{"value":"IE","title":"Ireland"},{"value":"IL","title":"Israel"},{"value":"IT","title":"Italy"},{"value":"CI","title":"Ivory Coast"},{"value":"JM","title":"Jamaica"},{"value":"JP","title":"Japan"},{"value":"JO","title":"Jordan"},{"value":"KZ","title":"Kazakhstan"},{"value":"KE","title":"Kenya"},{"value":"KI","title":"Kiribati"},{"value":"KR","title":"Korea"},{"value":"K1","title":"Kosovo"},{"value":"KW","title":"Kuwait"},{"value":"KG","title":"Kyrghyz Republic"},{"value":"LA","title":"Laos"},{"value":"LV","title":"Latvia"},{"value":"LB","title":"Lebanon"},{"value":"LS","title":"Lesotho"},{"value":"LR","title":"Liberia"},{"value":"LY","title":"Libya"},{"value":"LI","title":"Liechtenstein"},{"value":"LT","title":"Lithuania"},{"value":"LU","title":"Luxembourg"},{"value":"MO","title":"Macau"},{"value":"MK","title":"Macedonia"},{"value":"MG","title":"Madagascar"},{"value":"MW","title":"Malawi"},{"value":"MY","title":"Malaysia"},{"value":"MV","title":"Maldives"},{"value":"ML","title":"Mali"},{"value":"MT","title":"Malta"},{"value":"MH","title":"Marshall Islands"},{"value":"MQ","title":"Martinique"},{"value":"MR","title":"Mauritania"},{"value":"MU","title":"Mauritius"},{"value":"YT","title":"Mayotte"},{"value":"MX","title":"Mexico"},{"value":"FM","title":"Micronesia"},{"value":"MD","title":"Moldova"},{"value":"MC","title":"Monaco"},{"value":"MN","title":"Mongolia"},{"value":"ME","title":"Montenegro"},{"value":"MS","title":"Montserrat"},{"value":"MA","title":"Morocco"},{"value":"MZ","title":"Mozambique"},{"value":"MM","title":"Myanmar"},{"value":"NA","title":"Namibia"},{"value":"NR","title":"Nauru"},{"value":"NP","title":"Nepal"},{"value":"NL","title":"Netherlands"},{"value":"NZ","title":"New Zealand"},{"value":"NI","title":"Nicaragua"},{"value":"NE","title":"Niger"},{"value":"NG","title":"Nigeria"},{"value":"NU","title":"Niue"},{"value":"XZ","title":"North Ireland"},{"value":"MP","title":"Northern Mariana Islands"},{"value":"NO","title":"Norway"},{"value":"OM","title":"Oman"},{"value":"PK","title":"Pakistan"},{"value":"PW","title":"Palau"},{"value":"PS","title":"Palestinian Authority"},{"value":"PA","title":"Panama"},{"value":"PG","title":"Papua New Guinea"},{"value":"PY","title":"Paraguay"},{"value":"PE","title":"Peru"},{"value":"PH","title":"Philippines"},{"value":"PL","title":"Poland"},{"value":"PT","title":"Portugal"},{"value":"PR","title":"Puerto Rico"},{"value":"QA","title":"Qatar"},{"value":"RE","title":"Reunion Island"},{"value":"RO","title":"Romania"},{"value":"XW","title":"Rota, CNMI"},{"value":"RU","title":"Russia"},{"value":"RW","title":"Rwanda"},{"value":"BL","title":"Saint Barthelemy"},{"value":"KN","title":"Saint Kitts And Nevis"},{"value":"LC","title":"Saint Lucia"},{"value":"VC","title":"Saint Vincent And The Grenadines"},{"value":"XU","title":"Saipan, CNMI"},{"value":"WS","title":"Samoa"},{"value":"ST","title":"Sao Tome And Principe"},{"value":"SA","title":"Saudi Arabia"},{"value":"XS","title":"Scotland"},{"value":"SN","title":"Senegal"},{"value":"YU","title":"Serbia"},{"value":"SC","title":"Seychelles"},{"value":"SL","title":"Sierra Leone"},{"value":"SG","title":"Singapore"},{"value":"SK","title":"Slovakia"},{"value":"SI","title":"Slovenia"},{"value":"SB","title":"Solomon Islands"},{"value":"SO","title":"Somalia"},{"value":"XA","title":"Somaliland"},{"value":"ZA","title":"South Africa"},{"value":"SS","title":"South Sudan"},{"value":"ES","title":"Spain"},{"value":"LK","title":"Sri Lanka"},{"value":"S1","title":"St. Maarten"},{"value":"MF","title":"St. Martin"},{"value":"XD","title":"St. Thomas"},{"value":"SD","title":"Sudan"},{"value":"SR","title":"Suriname"},{"value":"SZ","title":"Swaziland"},{"value":"SE","title":"Sweden"},{"value":"CH","title":"Switzerland"},{"value":"SY","title":"Syria"},{"value":"TW","title":"Taiwan"},{"value":"TJ","title":"Tajikistan"},{"value":"TZ","title":"Tanzania"},{"value":"TH","title":"Thailand"},{"value":"XV","title":"Tinian, CNMI"},{"value":"TG","title":"Togo"},{"value":"TO","title":"Tonga"},{"value":"TT","title":"Trinidad and Tobago"},{"value":"TN","title":"Tunisia"},{"value":"TR","title":"Turkey"},{"value":"TM","title":"Turkmenistan"},{"value":"TC","title":"Turks and Caicos Islands"},{"value":"TV","title":"Tuvalu"},{"value":"UG","title":"Uganda"},{"value":"UA","title":"Ukraine"},{"value":"AE","title":"United Arab Emirates"},{"value":"GB","title":"United Kingdom"},{"value":"US","title":"United States"},{"value":"UY","title":"Uruguay"},{"value":"UZ","title":"Uzbekistan"},{"value":"VU","title":"Vanuatu"},{"value":"VE","title":"Venezuela"},{"value":"VN","title":"Vietnam"},{"value":"VI","title":"Virgin Islands (US)"},{"value":"XR","title":"Wales"},{"value":"YE","title":"Yemen"},{"value":"ZM","title":"Zambia"},{"value":"ZW","title":"Zimbabwe"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","form_id":"web/send_money","item_id":"payment","data":{"currency_get":"JOD","country_send_code":"FR"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"service_pay":"In minutes","received_as":"Cash at a WU agent location","payment_by":"Bank transfer","fundsout":"cash","fundsin":"bank_transfer","currency_get":"JOD","country_send_name":"France","country_send_code":"FR"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","sender_country":"jo","send_currency":"JOD","receiver_country":"FR","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"bank_transfer","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"set","items":[{"visibility":"hidden","options":[],"id":"rate"},{"visibility":"hidden","value":"","id":"warning_exception_notify"},{"visibility":"visible","value":"cash","options":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}],"id":"fundsout"},{"visibility":"visible","value":"bank_transfer","options":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}],"id":"fundsin"},{"id":"temporary_expander","actions":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"value":{"currency_get":"JOD","country_send_code":"FR","amount_send":"","amount_get":""},"id":"payment"},{"visibility":"visible","id":"button_submit"}],"form_id":"web/send_money"},{"type":"resp","data":[{"value":"EUR","title":"EUR"}]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","form_id":"web/send_money","item_id":"payment","data":{"promocode":"","country_send_code":"FR","currency_get":"JOD","currency_send":"EUR","amount_get":"11"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Bank transfer","gross_amount":"13.000","fundsout":"cash","fundsin":"bank_transfer","fee":"2.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"bank_transfer","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"bank_transfer"},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{ "token": "4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d", "form_id": "web/send_money", "item_id": "fundsin", "data": { "payment": { "amount_get": "11", "country_send_code": "FR", "amount_send": "12.05", "currency_get": "JOD", "currency_send": "EUR", "currency_send_code": "FR" }, "fundsout": "cash", "fundsin": "stage_and_pay", "temporary_expander": true } }</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"13.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"2.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"payment","form_id":"web/send_money","field":"value","data":{"currency_send_code":"EUR","currency_send":"EUR","currency_get":"JOD","country_send_code":"FR","amount_send":"12.05","amount_get":"11.000"}},{"type":"set","item_id":"temporary_expander","form_id":"web/send_money","field":"actions","data":[{"oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer8",""]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"options","data":[{"value":"cash","title":"Cash at a WU agent location","icon":"cash"}]},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"options","data":[{"value":"direct_debit","title":"Debit card","icon":"credit_debit"},{"value":"bank_transfer","title":"Bank transfer","icon":"bank"},{"value":"stage_and_pay","title":"Pay cash in store","icon":"stage_and_pay","actions":[{"url":"/items/show_sap_info?preloader=true","oper":"modal"}]}]},{"type":"set","item_id":"fundsout","form_id":"web/send_money","field":"value","data":"cash"},{"type":"set","item_id":"fundsin","form_id":"web/send_money","field":"value","data":"stage_and_pay"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{ "token": "4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d", "form_id": "web/send_money", "item_id": "fundsin", "data": { "payment": { "amount_get": "11", "country_send_code": "FR", "amount_send": "12.05", "currency_get": "JOD", "currency_send": "EUR", "currency_send_code": "FR" }, "fundsout": "cash", "fundsin": "stage_and_pay", "temporary_expander": true, "extraData": { "id": "fundsin", "value": "stage_and_pay", "optionsActionsList": [ "modal" ] } } }</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"13.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"2.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":"web/send_money/stage_and_pay"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/send_money/stage_and_pay","data":{"submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"close","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"13.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"2.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"0.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"2.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/profile/edit","phone_verified":"true","page_name":"/profile/edit","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{},"code":0}</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseCode - PASS
@@ -3613,22 +3613,22 @@
 </t>
   </si>
   <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","form_id":"web/send_money","item_id":"promocode","data":"A1588"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":"ok"},{"type":"set","item_id":"promocode","form_id":"web/send_money","field":"extra","data":{"disabled":true,"button_title":"Remove","api_check":"/items/sendmoney_promocode_del_web"}},{"type":"set","item_id":"label_promo","form_id":"web/send_money","field":"value","data":"[color=#7FC76C]Promo code A1588 has been applied to your transfer[/color]"},{"type":"set","item_id":"label_promo","form_id":"web/send_money","field":"visibility","data":"visible"}],"code":0}</t>
-  </si>
-  <si>
-    <t>{ "token": "202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec", "id": "web/send_money", "data": { "payment": { "amount_get": "11", "country_send_code": "FR", "amount_send": "12.02", "currency_get": "JOD", "currency_send": "EUR", "currency_send_code": "FR" }, "fundsout": "cash", "fundsin": "stage_and_pay", "expander": true, "promocode": "A1588", "temporary_expander": true, "button_submit": "submit" } }</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/receiver","grid":{"type":"two_column","header":"HeaderSend","components":{"right":["web/send_money/receiver/right"],"modal":["web/send_money/receiver/upi_info"],"left":["web/send_money/receiver"]}},"forms":[{"type":"body","title":"Receiver's information[sup]6, 7[/sup]","sections":[{"header":[{"value":"Know your receiver. After your money's been picked up or deposited, it can't be refunded. Also, you can't send to a business or charity bank account. If you do, the transfer will be rejected.","id":"label_95345","class":"label"},{"value":"Choose receiver","id":"label_80107","class":"label"},{"visibility":"visible","type":"receivers","required":false,"id":"receivers","extra":{"remove_item":"/items/receivers/del"},"class":"list","actions":[{"oper":"toggleExpander","items":["expander","expander_1"]},{"type":"section","oper":"clearValue","items":["apn_st","mmt_st","upi_st","receiver_st","apn_or_upi"]},{"url":"/items/receivers/get","oper":"init"}]}],"footer":[],"content":[]},{"id":"receiver_st","header":[],"footer":[],"content":[{"visibility":"visible","title":"Add new receiver","required":false,"id":"expander","class":"expander","actions":[{"oper":"toggleVisible","items":["first_name","expander_1","last_name","phone","email","purpose","source","nationality"]},{"type":"section","oper":"toggleVisible","items":["apn_or_upi","apn_st","mmt_st"]}]},{"visibility":"hidden","type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Middle name (optional)","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","value":{"type":"mob","number":"","country_code":""},"title":"Phone number (optional)","required":false,"regexp":"^mob(--|-[0-9]{1,4}-[0-9]{4,17})$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"email","title":"Email (optional)","required":false,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"country","title":"Nationality","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"hidden","title":"Purpose of transaction","required":true,"options":[{"value":"Family Support","title":"Family Support"},{"value":"Regular Labor Transfers (Expatriates)","title":"Regular Labor Transfers (Expatriates)"},{"value":"Travel &amp; Tourism","title":"Travel &amp; Tourism"},{"value":"Education","title":"Education"},{"value":"Hospitalization &amp; Medical Treatment","title":"Hospitalization &amp; Medical Treatment"},{"value":"Savings","title":"Savings"},{"value":"Emergency Need","title":"Emergency Need"},{"value":"Gifts","title":"Gifts"}],"id":"purpose","error_msg":"Please select purpose of transaction","class":"select"},{"visibility":"hidden","value":"Provide a security questions and its answer for your receiver","title":"label_title","id":"label_question","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500390913225","class":"divider"},{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver","delivery_template":{"visible":"del","upi":"del","state":"del","mmt":"del","apn":"del"}},{"type":"modal","title":"","sections":[{"header":[{"visibility":"visible","value":"[size=20]How to use UPI ID[/size]","id":"upi_title","class":"label","align":"center"}],"footer":[],"content":[{"url":"/static/UPI_logo.svg","style":{"height":"200px"},"id":"upi_logo","class":"image","align":"center"},{"visibility":"visible","value":"[size=16][ul][*]“Unified Payment Interface” (UPI) enables bank deposit without need to enter bank account number.[/*][/ul][/size]","id":"upi_title_1","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]UPI ID is available for account payout up to [b]100,000 INR[/b].[/*][/ul][/size]","id":"upi_title_2","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Currently [b]18 banks[/b] support international transfer using UPI ID. All banks in India will be supported over time.[/*][/ul][/size]","id":"upi_title_3","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Share the list of banks with your receiver so that they can give the valid UPI ID to you.[/*][/ul][/size][br]","id":"upi_title_4","class":"label"},{"value":"","title":"View supported banks","required":false,"options":[{"value":"Allahabad Bank","title":"Allahabad Bank"},{"value":"Andhra Bank","title":"Andhra Bank"},{"value":"Axis Bank Ltd","title":"Axis Bank Ltd"},{"value":"Bank of Baroda","title":"Bank of Baroda"},{"value":"Bank of India","title":"Bank of India"},{"value":"Central Bank of India","title":"Central Bank of India"},{"value":"HSBC","title":"HSBC"},{"value":"ICICI Bank","title":"ICICI Bank"},{"value":"IDBI Bank Ltd","title":"IDBI Bank Ltd"},{"value":"IndusInd Bank","title":"IndusInd Bank"},{"value":"Kotak Mahindra Bank","title":"Kotak Mahindra Bank"},{"value":"Oriental Bank of Commerce","title":"Oriental Bank of Commerce"},{"value":"Punjab and Sind Bank","title":"Punjab and Sind Bank"},{"value":"RBL","title":"RBL"},{"value":"South Indian Bank","title":"South Indian Bank"},{"value":"State Bank of India","title":"State Bank of India"},{"value":"UCO Bank","title":"UCO Bank"},{"value":"Yes Bank Ltd","title":"Yes Bank Ltd"}],"id":"upi_sup_banks","class":"select"},{"visibility":"visible","type":"submit","title":"Continue","id":"upi_continue","class":"button"}]}],"id":"web/send_money/receiver/upi_info"},{"type":"body","sections":[{"header":[{"type":"Summary","id":"divider_93056","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver/right"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/send_money/receiver"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/receiver","grid":{"type":"two_column","header":"HeaderSend","components":{"right":["web/send_money/receiver/right"],"modal":["web/send_money/receiver/upi_info"],"left":["web/send_money/receiver"]}},"forms":[{"type":"body","title":"Receiver's information[sup]6, 7[/sup]","sections":[{"header":[{"value":"Know your receiver. After your money's been picked up or deposited, it can't be refunded. Also, you can't send to a business or charity bank account. If you do, the transfer will be rejected.","id":"label_95345","class":"label"},{"value":"Choose receiver","id":"label_80107","class":"label"},{"visibility":"visible","type":"receivers","required":false,"id":"receivers","extra":{"remove_item":"/items/receivers/del"},"class":"list","actions":[{"oper":"toggleExpander","items":["expander","expander_1"]},{"type":"section","oper":"clearValue","items":["apn_st","mmt_st","upi_st","receiver_st","apn_or_upi"]},{"url":"/items/receivers/get","oper":"init"}]}],"footer":[],"content":[]},{"id":"receiver_st","header":[],"footer":[],"content":[{"visibility":"visible","title":"Add new receiver","required":false,"id":"expander","class":"expander","actions":[{"oper":"toggleVisible","items":["first_name","expander_1","last_name","phone","email","purpose","source","nationality"]},{"type":"section","oper":"toggleVisible","items":["apn_or_upi","apn_st","mmt_st"]}]},{"visibility":"hidden","type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Middle name (optional)","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","value":{"type":"mob","number":"","country_code":""},"title":"Phone number (optional)","required":false,"regexp":"^mob(--|-[0-9]{1,4}-[0-9]{4,17})$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"email","title":"Email (optional)","required":false,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"country","title":"Nationality","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"hidden","title":"Purpose of transaction","required":true,"options":[{"value":"Family Support","title":"Family Support"},{"value":"Regular Labor Transfers (Expatriates)","title":"Regular Labor Transfers (Expatriates)"},{"value":"Travel &amp; Tourism","title":"Travel &amp; Tourism"},{"value":"Education","title":"Education"},{"value":"Hospitalization &amp; Medical Treatment","title":"Hospitalization &amp; Medical Treatment"},{"value":"Savings","title":"Savings"},{"value":"Emergency Need","title":"Emergency Need"},{"value":"Gifts","title":"Gifts"}],"id":"purpose","error_msg":"Please select purpose of transaction","class":"select"},{"visibility":"hidden","value":"Provide a security questions and its answer for your receiver","title":"label_title","id":"label_question","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500390913225","class":"divider"},{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver","delivery_template":{"visible":"del","upi":"del","state":"del","mmt":"del","apn":"del"}},{"type":"modal","title":"","sections":[{"header":[{"visibility":"visible","value":"[size=20]How to use UPI ID[/size]","id":"upi_title","class":"label","align":"center"}],"footer":[],"content":[{"url":"/static/UPI_logo.svg","style":{"height":"200px"},"id":"upi_logo","class":"image","align":"center"},{"visibility":"visible","value":"[size=16][ul][*]“Unified Payment Interface” (UPI) enables bank deposit without need to enter bank account number.[/*][/ul][/size]","id":"upi_title_1","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]UPI ID is available for account payout up to [b]100,000 INR[/b].[/*][/ul][/size]","id":"upi_title_2","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Currently [b]18 banks[/b] support international transfer using UPI ID. All banks in India will be supported over time.[/*][/ul][/size]","id":"upi_title_3","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Share the list of banks with your receiver so that they can give the valid UPI ID to you.[/*][/ul][/size][br]","id":"upi_title_4","class":"label"},{"value":"","title":"View supported banks","required":false,"options":[{"value":"Allahabad Bank","title":"Allahabad Bank"},{"value":"Andhra Bank","title":"Andhra Bank"},{"value":"Axis Bank Ltd","title":"Axis Bank Ltd"},{"value":"Bank of Baroda","title":"Bank of Baroda"},{"value":"Bank of India","title":"Bank of India"},{"value":"Central Bank of India","title":"Central Bank of India"},{"value":"HSBC","title":"HSBC"},{"value":"ICICI Bank","title":"ICICI Bank"},{"value":"IDBI Bank Ltd","title":"IDBI Bank Ltd"},{"value":"IndusInd Bank","title":"IndusInd Bank"},{"value":"Kotak Mahindra Bank","title":"Kotak Mahindra Bank"},{"value":"Oriental Bank of Commerce","title":"Oriental Bank of Commerce"},{"value":"Punjab and Sind Bank","title":"Punjab and Sind Bank"},{"value":"RBL","title":"RBL"},{"value":"South Indian Bank","title":"South Indian Bank"},{"value":"State Bank of India","title":"State Bank of India"},{"value":"UCO Bank","title":"UCO Bank"},{"value":"Yes Bank Ltd","title":"Yes Bank Ltd"}],"id":"upi_sup_banks","class":"select"},{"visibility":"visible","type":"submit","title":"Continue","id":"upi_continue","class":"button"}]}],"id":"web/send_money/receiver/upi_info"},{"type":"body","sections":[{"header":[{"type":"Summary","id":"divider_93056","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver/right"}]},"code":0}</t>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","form_id":"web/send_money","item_id":"promocode","data":"A1588"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/profile/edit","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":"ok"},{"type":"set","item_id":"promocode","form_id":"web/send_money","field":"extra","data":{"disabled":true,"button_title":"Remove","api_check":"/items/sendmoney_promocode_del_web"}},{"type":"set","item_id":"label_promo","form_id":"web/send_money","field":"value","data":"[color=#7FC76C]Promo code A1588 has been applied to your transfer[/color]"},{"type":"set","item_id":"label_promo","form_id":"web/send_money","field":"visibility","data":"visible"}],"code":0}</t>
+  </si>
+  <si>
+    <t>{ "token": "4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d", "id": "web/send_money", "data": { "payment": { "amount_get": "11", "country_send_code": "FR", "amount_send": "12.05", "currency_get": "JOD", "currency_send": "EUR", "currency_send_code": "FR" }, "fundsout": "cash", "fundsin": "stage_and_pay", "expander": true, "promocode": "A1588", "temporary_expander": true, "button_submit": "submit" } }</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/receiver","grid":{"type":"two_column","header":"HeaderSend","components":{"right":["web/send_money/receiver/right"],"modal":["web/send_money/receiver/upi_info"],"left":["web/send_money/receiver"]}},"forms":[{"type":"body","title":"Receiver's information[sup]6, 7[/sup]","sections":[{"header":[{"value":"Know your receiver. After your money's been picked up or deposited, it can't be refunded. Also, you can't send to a business or charity bank account. If you do, the transfer will be rejected.","id":"label_95345","class":"label"},{"value":"Choose receiver","id":"label_80107","class":"label"},{"visibility":"visible","type":"receivers","required":false,"id":"receivers","extra":{"remove_item":"/items/receivers/del"},"class":"list","actions":[{"oper":"toggleExpander","items":["expander","expander_1"]},{"type":"section","oper":"clearValue","items":["apn_st","mmt_st","upi_st","receiver_st","apn_or_upi"]},{"url":"/items/receivers/get","oper":"init"}]}],"footer":[],"content":[]},{"id":"receiver_st","header":[],"footer":[],"content":[{"visibility":"visible","title":"Add new receiver","required":false,"id":"expander","class":"expander","actions":[{"oper":"toggleVisible","items":["first_name","expander_1","last_name","phone","email","purpose","source","nationality"]},{"type":"section","oper":"toggleVisible","items":["apn_or_upi","apn_st","mmt_st"]}]},{"visibility":"hidden","type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Middle name (optional)","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","value":{"type":"mob","number":"","country_code":""},"title":"Phone number (optional)","required":false,"regexp":"^mob(--|-[0-9]{1,4}-[0-9]{4,17})$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"email","title":"Email (optional)","required":false,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"country","title":"Nationality","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"hidden","title":"Purpose of transaction","required":true,"options":[{"value":"Family Support","title":"Family Support"},{"value":"Regular Labor Transfers (Expatriates)","title":"Regular Labor Transfers (Expatriates)"},{"value":"Travel &amp; Tourism","title":"Travel &amp; Tourism"},{"value":"Education","title":"Education"},{"value":"Hospitalization &amp; Medical Treatment","title":"Hospitalization &amp; Medical Treatment"},{"value":"Savings","title":"Savings"},{"value":"Emergency Need","title":"Emergency Need"},{"value":"Gifts","title":"Gifts"}],"id":"purpose","error_msg":"Please select purpose of transaction","class":"select"},{"visibility":"hidden","value":"Provide a security questions and its answer for your receiver","title":"label_title","id":"label_question","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500390913225","class":"divider"},{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver","delivery_template":{"visible":"del","upi":"del","state":"del","mmt":"del","apn":"del"}},{"type":"modal","title":"","sections":[{"header":[{"visibility":"visible","value":"[size=20]How to use UPI ID[/size]","id":"upi_title","class":"label","align":"center"}],"footer":[],"content":[{"url":"/static/UPI_logo.svg","style":{"height":"200px"},"id":"upi_logo","class":"image","align":"center"},{"visibility":"visible","value":"[size=16][ul][*]“Unified Payment Interface” (UPI) enables bank deposit without need to enter bank account number.[/*][/ul][/size]","id":"upi_title_1","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]UPI ID is available for account payout up to [b]100,000 INR[/b].[/*][/ul][/size]","id":"upi_title_2","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Currently [b]18 banks[/b] support international transfer using UPI ID. All banks in India will be supported over time.[/*][/ul][/size]","id":"upi_title_3","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Share the list of banks with your receiver so that they can give the valid UPI ID to you.[/*][/ul][/size][br]","id":"upi_title_4","class":"label"},{"value":"","title":"View supported banks","required":false,"options":[{"value":"Allahabad Bank","title":"Allahabad Bank"},{"value":"Andhra Bank","title":"Andhra Bank"},{"value":"Axis Bank Ltd","title":"Axis Bank Ltd"},{"value":"Bank of Baroda","title":"Bank of Baroda"},{"value":"Bank of India","title":"Bank of India"},{"value":"Central Bank of India","title":"Central Bank of India"},{"value":"HSBC","title":"HSBC"},{"value":"ICICI Bank","title":"ICICI Bank"},{"value":"IDBI Bank Ltd","title":"IDBI Bank Ltd"},{"value":"IndusInd Bank","title":"IndusInd Bank"},{"value":"Kotak Mahindra Bank","title":"Kotak Mahindra Bank"},{"value":"Oriental Bank of Commerce","title":"Oriental Bank of Commerce"},{"value":"Punjab and Sind Bank","title":"Punjab and Sind Bank"},{"value":"RBL","title":"RBL"},{"value":"South Indian Bank","title":"South Indian Bank"},{"value":"State Bank of India","title":"State Bank of India"},{"value":"UCO Bank","title":"UCO Bank"},{"value":"Yes Bank Ltd","title":"Yes Bank Ltd"}],"id":"upi_sup_banks","class":"select"},{"visibility":"visible","type":"submit","title":"Continue","id":"upi_continue","class":"button"}]}],"id":"web/send_money/receiver/upi_info"},{"type":"body","sections":[{"header":[{"type":"Summary","id":"divider_93056","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver/right"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/send_money/receiver"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/receiver","grid":{"type":"two_column","header":"HeaderSend","components":{"right":["web/send_money/receiver/right"],"modal":["web/send_money/receiver/upi_info"],"left":["web/send_money/receiver"]}},"forms":[{"type":"body","title":"Receiver's information[sup]6, 7[/sup]","sections":[{"header":[{"value":"Know your receiver. After your money's been picked up or deposited, it can't be refunded. Also, you can't send to a business or charity bank account. If you do, the transfer will be rejected.","id":"label_95345","class":"label"},{"value":"Choose receiver","id":"label_80107","class":"label"},{"visibility":"visible","type":"receivers","required":false,"id":"receivers","extra":{"remove_item":"/items/receivers/del"},"class":"list","actions":[{"oper":"toggleExpander","items":["expander","expander_1"]},{"type":"section","oper":"clearValue","items":["apn_st","mmt_st","upi_st","receiver_st","apn_or_upi"]},{"url":"/items/receivers/get","oper":"init"}]}],"footer":[],"content":[]},{"id":"receiver_st","header":[],"footer":[],"content":[{"visibility":"visible","title":"Add new receiver","required":false,"id":"expander","class":"expander","actions":[{"oper":"toggleVisible","items":["first_name","expander_1","last_name","phone","email","purpose","source","nationality"]},{"type":"section","oper":"toggleVisible","items":["apn_or_upi","apn_st","mmt_st"]}]},{"visibility":"hidden","type":"text","title":"First name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,35})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"first_name","error_msg":"Please check first name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Middle name (optional)","required":false,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"middle_name","error_msg":"Please check middle name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"text","title":"Last name","row":1,"required":true,"regexp":".*(?=^([a-zA-Z' -]{2,30})$).*(?=^((?!  ).)*$).*(?=^((?! $).)*$).*(?=^((?!^ ).)*$).*","id":"last_name","error_msg":"Please check last name","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","value":{"type":"mob","number":"","country_code":""},"title":"Phone number (optional)","required":false,"regexp":"^mob(--|-[0-9]{1,4}-[0-9]{4,17})$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"email","title":"Email (optional)","required":false,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[{"oper":"clearValue","items":["receivers"]}]},{"visibility":"hidden","type":"country","title":"Nationality","required":true,"regexp":"^[A-Z]{2}$","options":[],"id":"nationality","error_msg":"Please select nationality","class":"select","actions":[{"url":"/items/countries","oper":"init"}]},{"visibility":"hidden","title":"Purpose of transaction","required":true,"options":[{"value":"Family Support","title":"Family Support"},{"value":"Regular Labor Transfers (Expatriates)","title":"Regular Labor Transfers (Expatriates)"},{"value":"Travel &amp; Tourism","title":"Travel &amp; Tourism"},{"value":"Education","title":"Education"},{"value":"Hospitalization &amp; Medical Treatment","title":"Hospitalization &amp; Medical Treatment"},{"value":"Savings","title":"Savings"},{"value":"Emergency Need","title":"Emergency Need"},{"value":"Gifts","title":"Gifts"}],"id":"purpose","error_msg":"Please select purpose of transaction","class":"select"},{"visibility":"hidden","value":"Provide a security questions and its answer for your receiver","title":"label_title","id":"label_question","class":"label"}]},{"header":[],"footer":[{"visibility":"hidden","type":"Summary","title":"divider_title","id":"divider_id_1500390913225","class":"divider"},{"visibility":"visible","value":"submit","type":"submit","title":"Continue","id":"button_submit","extra":{"validate":false},"class":"button","actions":[{"oper":"submit"}]},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_cancel","class":"button","actions":[]}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver","delivery_template":{"visible":"del","upi":"del","state":"del","mmt":"del","apn":"del"}},{"type":"modal","title":"","sections":[{"header":[{"visibility":"visible","value":"[size=20]How to use UPI ID[/size]","id":"upi_title","class":"label","align":"center"}],"footer":[],"content":[{"url":"/static/UPI_logo.svg","style":{"height":"200px"},"id":"upi_logo","class":"image","align":"center"},{"visibility":"visible","value":"[size=16][ul][*]“Unified Payment Interface” (UPI) enables bank deposit without need to enter bank account number.[/*][/ul][/size]","id":"upi_title_1","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]UPI ID is available for account payout up to [b]100,000 INR[/b].[/*][/ul][/size]","id":"upi_title_2","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Currently [b]18 banks[/b] support international transfer using UPI ID. All banks in India will be supported over time.[/*][/ul][/size]","id":"upi_title_3","class":"label"},{"visibility":"visible","value":"[size=16][ul][*]Share the list of banks with your receiver so that they can give the valid UPI ID to you.[/*][/ul][/size][br]","id":"upi_title_4","class":"label"},{"value":"","title":"View supported banks","required":false,"options":[{"value":"Allahabad Bank","title":"Allahabad Bank"},{"value":"Andhra Bank","title":"Andhra Bank"},{"value":"Axis Bank Ltd","title":"Axis Bank Ltd"},{"value":"Bank of Baroda","title":"Bank of Baroda"},{"value":"Bank of India","title":"Bank of India"},{"value":"Central Bank of India","title":"Central Bank of India"},{"value":"HSBC","title":"HSBC"},{"value":"ICICI Bank","title":"ICICI Bank"},{"value":"IDBI Bank Ltd","title":"IDBI Bank Ltd"},{"value":"IndusInd Bank","title":"IndusInd Bank"},{"value":"Kotak Mahindra Bank","title":"Kotak Mahindra Bank"},{"value":"Oriental Bank of Commerce","title":"Oriental Bank of Commerce"},{"value":"Punjab and Sind Bank","title":"Punjab and Sind Bank"},{"value":"RBL","title":"RBL"},{"value":"South Indian Bank","title":"South Indian Bank"},{"value":"State Bank of India","title":"State Bank of India"},{"value":"UCO Bank","title":"UCO Bank"},{"value":"Yes Bank Ltd","title":"Yes Bank Ltd"}],"id":"upi_sup_banks","class":"select"},{"visibility":"visible","type":"submit","title":"Continue","id":"upi_continue","class":"button"}]}],"id":"web/send_money/receiver/upi_info"},{"type":"body","sections":[{"header":[{"type":"Summary","id":"divider_93056","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/receiver/right"}]},"code":0}</t>
   </si>
   <si>
     <t xml:space="preserve">ResponseCode - PASS
@@ -3637,34 +3637,34 @@
 </t>
   </si>
   <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","form_id":"web/send_money/receiver","item_id":"receivers"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/send_money/receiver","data":{"expander":true,"first_name":"qwe","last_name":"qew","phone":{"type":"mob","number":"979057288","country_code":"380"},"email":"zatoch@ukr.net","nationality":"AI","purpose":"Hospitalization &amp; Medical Treatment","temporary_expander":true,"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","sender_last_name":"Merzliakov","sender_first_name":"Oleksii","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125778","purpose":"Hospitalization &amp; Medical Treatment","phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/review","grid":{"type":"one_column","header":"HeaderSend","components":{"center":["web/send_money/review"]}},"forms":[{"type":"body","title":"Review and confirm","sections":[{"header":[{"type":"Review","id":"divider_50716","class":"divider"}],"footer":[],"content":[]},{"header":[],"footer":[],"content":[{"value":"[br]For all transfers, receiver may receive less due to foreign taxes. [br] For transfers to a bank account, receiver may also receive less due to fees charged by the receiver's bank.[br] [b]Important:[/b] Western Union relies on the information you provide us to send money. Please review and confirm money transfer information before completing your transfer.[br] If you're sending money to a bank account, please make sure the account number, bank details, and currency selected are correct before sending. If the account number or bank details are incorrect, money may be sent to the wrong bank account and may not be recovered.","id":"label_39439","class":"label","align":"left"}]},{"header":[],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]Western Union terms of service[/url] and [url=https://www.westernunion.com/jo/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_enroll","error_msg":"Please confirm agreement","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"cancel_btn","class":"button"}],"content":[{"value":"[b]Protect Yourself from Fraud[/b][br] Only use Western Union to send money to friends and family. Never send money to someone you have not met in person.\nScammers sometimes encourage people to transfer money. Do not transfer money to anyone who asks you to send them money: [ul][*]For an emergency situation you haven’t confirmed.[/*][*]For an online purchase.[/*][*]For anti‐virus protection.[/*][*]For a deposit or payment on a rental property.[/*][*]To claim lottery or prize winnings.[/*][*]To pay taxes.[/*][*]For a donation to charity.[/*][*]For a mystery shopping assignment.[/*][*]For a job opportunity.[/*][*]For a credit card or loan fee.[/*][*]To resolve an immigration matter.[/*][/ul]If you transfer money, the person you’re sending it to gets the money quickly. After the money is paid, Western Union may not be able to give you a refund, even if you are the victim of fraud, except under limited circumstances. [p]If you believe that you are the victim of fraud, call the Western Union Fraud Hotline at 0800 22713 (landline only)[/p][p][url=https://www.westernunion.com/jo/en/fraud-awareness.html]Find out more about fraud protection here.[/url][/p]","id":"label_58802","class":"label","align":"left"}]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/review"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/send_money/review"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","sender_last_name":"Merzliakov","sender_first_name":"Oleksii","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125778","purpose":"Hospitalization &amp; Medical Treatment","phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.02","exchange_rate":"1.0928127","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/review","grid":{"type":"one_column","header":"HeaderSend","components":{"center":["web/send_money/review"]}},"forms":[{"type":"body","title":"Review and confirm","sections":[{"header":[{"type":"Review","id":"divider_50716","class":"divider"}],"footer":[],"content":[]},{"header":[],"footer":[],"content":[{"value":"[br]For all transfers, receiver may receive less due to foreign taxes. [br] For transfers to a bank account, receiver may also receive less due to fees charged by the receiver's bank.[br] [b]Important:[/b] Western Union relies on the information you provide us to send money. Please review and confirm money transfer information before completing your transfer.[br] If you're sending money to a bank account, please make sure the account number, bank details, and currency selected are correct before sending. If the account number or bank details are incorrect, money may be sent to the wrong bank account and may not be recovered.","id":"label_39439","class":"label","align":"left"}]},{"header":[],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]Western Union terms of service[/url] and [url=https://www.westernunion.com/jo/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_enroll","error_msg":"Please confirm agreement","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"cancel_btn","class":"button"}],"content":[{"value":"[b]Protect Yourself from Fraud[/b][br] Only use Western Union to send money to friends and family. Never send money to someone you have not met in person.\nScammers sometimes encourage people to transfer money. Do not transfer money to anyone who asks you to send them money: [ul][*]For an emergency situation you haven’t confirmed.[/*][*]For an online purchase.[/*][*]For anti‐virus protection.[/*][*]For a deposit or payment on a rental property.[/*][*]To claim lottery or prize winnings.[/*][*]To pay taxes.[/*][*]For a donation to charity.[/*][*]For a mystery shopping assignment.[/*][*]For a job opportunity.[/*][*]For a credit card or loan fee.[/*][*]To resolve an immigration matter.[/*][/ul]If you transfer money, the person you’re sending it to gets the money quickly. After the money is paid, Western Union may not be able to give you a refund, even if you are the victim of fraud, except under limited circumstances. [p]If you believe that you are the victim of fraud, call the Western Union Fraud Hotline at 0800 22713 (landline only)[/p][p][url=https://www.westernunion.com/jo/en/fraud-awareness.html]Find out more about fraud protection here.[/url][/p]","id":"label_58802","class":"label","align":"left"}]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/review"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","id":"web/send_money/review","data":{"i_enroll":true,"temporary_expander":true,"button_submit":"submit"}}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":0,"mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment_result":{"received_as":"Cash at a WU agent location","transaction_date":"1603713144","wu_product":{"name":"STAGE AND PAY","code":"000"},"promocode":"A1588","mywu":{"total_points":0,"points_earned":0,"mywu":"192243531"},"test_question_flag":"N","currency_get":"JOD","id":125779,"mywu_points_earned":0,"user_id":"125776","fundsin":"stage_and_pay","exchange_rate":"1.0928127","hostBasedTaxes":"N","unit":"1.000","expected_payout_amount":"12.02","country_send_name":"France","sender_first_name":"Oleksii","fin_amount":1100,"oper":"skip","country_get_code":"JO","fin_type_amount":"originators_principal_amount","api_type":"AIS","status":"STAGED","payment_id":"","principal_amount":"11.000","discount":"2.000","transaction_id":"2030084389055586","mtcn":"4389055586","transaction_type":"WMN","contact_id":125778,"country_send_code":"FR","payment_digest":"03650109AJO159990020411000301004036OZ0503FRZ06030000703FRZ0803WMN09000364100919224353112032001301014010150413001603200170101901020002101N0312220023002400","fee":"0.000","fundsout":"cash","taxes":[{"tax_rate":0},{"municipal_tax":0},{"state_tax":0},{"county_tax":0},{"tax_worksheet":""}],"amount_send":"","gross_amount":"11.000","country_get_name":"Jordan","currency_send":"EUR","pay_status":"SUCCESS","_error":"ok","staging_profile_account":"AJO190011","mywu_total_points":0,"staging_buffer":"0101O0202WB0303JOR0709AJO190011","amount_get":"11","c":0.43615037099824155,"transaction_date_fmt":"26/10/2020 13:52:24","service_pay":"In minutes","payment_by":"Pay cash in store","sender_last_name":"Merzliakov","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125778","purpose":"Hospitalization &amp; Medical Treatment","phone_obj":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"delivery_services":{"routing_code":"WADSFR000","payment_digest":"03650109AJO190030020411000301004036SP0503FRZ06030000703FRZ0803WMN09000355100012032001301014010150413001603200170101901020002101N0312220023002400","information":"MONEY IN MINUTES","code":"000"},"ss_score":0.43615037099824155,"error_reason":"","purpose":"Hospitalization &amp; Medical Treatment"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money/review","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":"2030084389055586"},"_time_zone":120},"data":{"next_page":"web/send_money/success","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/send_money/success"]}},"forms":[{"type":"body","title":"Confirmation","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"type":"SAP","id":"divider_1","extra":{"title":"Complete this transfer by","email_details":"Details below also sent to alex_oktqwspkm@gmail.com","date":{"time":"01:52 pm","day":"tomorrow"}},"class":"divider"},{"w":1,"url":"/static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Bring [b]11.000 JOD[/b] cash and your [b]photo ID[/b] to a JKB location","row":"1","id":"label_72752","class":"label"},{"w":1,"url":"/static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"Tell the agent you started this transaction online using your phone [b](380)713862959[/b]","row":"2","id":"label_72754","class":"label"},{"w":3.5,"url":"/static/warning.svg","row":"3","id":"warning_image","class":"image","align":"right"},{"w":6.5,"value":"This service is only available at JKB locations [br][br] Click \"Find a participating location\" below and narrow your search by selecting \"Pay for Transfers Started on App\" to see locations where you can pay for this transfer.","row":"3","id":"label_72757","class":"label","align":"left"},{"visibility":"visible","value":"location","type":"redirectBlank","title":"Find a participating location","id":"button_location","extra":{"url":"https://locations.westernunion.com/?searchType=addr&amp;locale=en_JO&amp;stageAndPay=T"},"class":"button"},{"value":"*To make any changes or cancel, please call us at Jordan Kuwait Bank 96265629400 or ext. 2213 2231 (08:00 – 15:30)","id":"label_72754","class":"label","align":"center"}]},{"header":[{"type":"Review","id":"divider_98048","class":"divider"}],"footer":[{"visibility":"visible","type":"submit","title":"Start another transaction","id":"submit","class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/success"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","value":"zatoch@ukr.net","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","value":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"}]},"code":0}</t>
-  </si>
-  <si>
-    <t>{"token":"202298976f919dd96180d9f4f6668d285431439a2ffb7403c1b71be5c59bd6ec","page":"web/send_money/success"}</t>
-  </si>
-  <si>
-    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":0,"mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=192243531&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"192243531","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment_result":{"received_as":"Cash at a WU agent location","transaction_date":"1603713144","wu_product":{"name":"STAGE AND PAY","code":"000"},"promocode":"A1588","mywu":{"total_points":0,"points_earned":0,"mywu":"192243531"},"test_question_flag":"N","currency_get":"JOD","id":125779,"mywu_points_earned":0,"user_id":"125776","fundsin":"stage_and_pay","exchange_rate":"1.0928127","hostBasedTaxes":"N","unit":"1.000","expected_payout_amount":"12.02","country_send_name":"France","sender_first_name":"Oleksii","fin_amount":1100,"oper":"skip","country_get_code":"JO","fin_type_amount":"originators_principal_amount","api_type":"AIS","status":"STAGED","payment_id":"","principal_amount":"11.000","discount":"2.000","transaction_id":"2030084389055586","mtcn":"4389055586","transaction_type":"WMN","contact_id":125778,"country_send_code":"FR","payment_digest":"03650109AJO159990020411000301004036OZ0503FRZ06030000703FRZ0803WMN09000364100919224353112032001301014010150413001603200170101901020002101N0312220023002400","fee":"0.000","fundsout":"cash","taxes":[{"tax_rate":0},{"municipal_tax":0},{"state_tax":0},{"county_tax":0},{"tax_worksheet":""}],"amount_send":"","gross_amount":"11.000","country_get_name":"Jordan","currency_send":"EUR","pay_status":"SUCCESS","_error":"ok","staging_profile_account":"AJO190011","mywu_total_points":0,"staging_buffer":"0101O0202WB0303JOR0709AJO190011","amount_get":"11","c":0.43615037099824155,"transaction_date_fmt":"26/10/2020 13:52:24","service_pay":"In minutes","payment_by":"Pay cash in store","sender_last_name":"Merzliakov","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125778","purpose":"Hospitalization &amp; Medical Treatment","phone_obj":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"delivery_services":{"routing_code":"WADSFR000","payment_digest":"03650109AJO190030020411000301004036SP0503FRZ06030000703FRZ0803WMN09000355100012032001301014010150413001603200170101901020002101N0312220023002400","information":"MONEY IN MINUTES","code":"000"},"ss_score":0.43615037099824155,"error_reason":"","purpose":"Hospitalization &amp; Medical Treatment"},"login":"alex_oktqwspkm@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125776","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.02","previous_page":"/send_money/review","phone_verified":"true","page_name":"/send_money/success","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0928127","account_verified":"true","account_id":"125776","TransactionID":"2030084389055586"},"_time_zone":120},"data":{"next_page":"web/send_money/success","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/send_money/success"]}},"forms":[{"type":"body","title":"Confirmation","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"type":"SAP","id":"divider_1","extra":{"title":"Complete this transfer by","email_details":"Details below also sent to alex_oktqwspkm@gmail.com","date":{"time":"01:52 pm","day":"tomorrow"}},"class":"divider"},{"w":1,"url":"/static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Bring [b]11.000 JOD[/b] cash and your [b]photo ID[/b] to a JKB location","row":"1","id":"label_72752","class":"label"},{"w":1,"url":"/static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"Tell the agent you started this transaction online using your phone [b](380)713862959[/b]","row":"2","id":"label_72754","class":"label"},{"w":3.5,"url":"/static/warning.svg","row":"3","id":"warning_image","class":"image","align":"right"},{"w":6.5,"value":"This service is only available at JKB locations [br][br] Click \"Find a participating location\" below and narrow your search by selecting \"Pay for Transfers Started on App\" to see locations where you can pay for this transfer.","row":"3","id":"label_72757","class":"label","align":"left"},{"visibility":"visible","value":"location","type":"redirectBlank","title":"Find a participating location","id":"button_location","extra":{"url":"https://locations.westernunion.com/?searchType=addr&amp;locale=en_JO&amp;stageAndPay=T"},"class":"button"},{"value":"*To make any changes or cancel, please call us at Jordan Kuwait Bank 96265629400 or ext. 2213 2231 (08:00 – 15:30)","id":"label_72754","class":"label","align":"center"}]},{"header":[{"type":"Review","id":"divider_98048","class":"divider"}],"footer":[{"visibility":"visible","type":"submit","title":"Start another transaction","id":"submit","class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/success"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","value":"zatoch@ukr.net","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","value":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"}]},"code":0}</t>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","form_id":"web/send_money/receiver","item_id":"receivers"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":[{"type":"resp","data":[]}],"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/send_money/receiver","data":{"expander":true,"first_name":"qwe","last_name":"qew","phone":{"type":"mob","number":"979057288","country_code":"380"},"email":"zatoch@ukr.net","nationality":"AI","purpose":"Hospitalization &amp; Medical Treatment","temporary_expander":true,"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","sender_last_name":"Merzliakov","sender_first_name":"Oleksii","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125788","purpose":"Hospitalization &amp; Medical Treatment","phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/receiver","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/review","grid":{"type":"one_column","header":"HeaderSend","components":{"center":["web/send_money/review"]}},"forms":[{"type":"body","title":"Review and confirm","sections":[{"header":[{"type":"Review","id":"divider_50716","class":"divider"}],"footer":[],"content":[]},{"header":[],"footer":[],"content":[{"value":"[br]For all transfers, receiver may receive less due to foreign taxes. [br] For transfers to a bank account, receiver may also receive less due to fees charged by the receiver's bank.[br] [b]Important:[/b] Western Union relies on the information you provide us to send money. Please review and confirm money transfer information before completing your transfer.[br] If you're sending money to a bank account, please make sure the account number, bank details, and currency selected are correct before sending. If the account number or bank details are incorrect, money may be sent to the wrong bank account and may not be recovered.","id":"label_39439","class":"label","align":"left"}]},{"header":[],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]Western Union terms of service[/url] and [url=https://www.westernunion.com/jo/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_enroll","error_msg":"Please confirm agreement","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"cancel_btn","class":"button"}],"content":[{"value":"[b]Protect Yourself from Fraud[/b][br] Only use Western Union to send money to friends and family. Never send money to someone you have not met in person.\nScammers sometimes encourage people to transfer money. Do not transfer money to anyone who asks you to send them money: [ul][*]For an emergency situation you haven’t confirmed.[/*][*]For an online purchase.[/*][*]For anti‐virus protection.[/*][*]For a deposit or payment on a rental property.[/*][*]To claim lottery or prize winnings.[/*][*]To pay taxes.[/*][*]For a donation to charity.[/*][*]For a mystery shopping assignment.[/*][*]For a job opportunity.[/*][*]For a credit card or loan fee.[/*][*]To resolve an immigration matter.[/*][/ul]If you transfer money, the person you’re sending it to gets the money quickly. After the money is paid, Western Union may not be able to give you a refund, even if you are the victim of fraud, except under limited circumstances. [p]If you believe that you are the victim of fraud, call the Western Union Fraud Hotline at 0800 22713 (landline only)[/p][p][url=https://www.westernunion.com/jo/en/fraud-awareness.html]Find out more about fraud protection here.[/url][/p]","id":"label_58802","class":"label","align":"left"}]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/review"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/send_money/review"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":"0","mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment":{"unit":"1.000","service_pay":"In minutes","sender_last_name":"Merzliakov","sender_first_name":"Oleksii","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125788","purpose":"Hospitalization &amp; Medical Treatment","phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"received_as":"Cash at a WU agent location","promocode":"A1588","principal_amount":"11.000","payment_by":"Pay cash in store","gross_amount":"11.000","fundsout":"cash","fundsin":"stage_and_pay","fee":"0.000","expected_payout_amount":"12.05","exchange_rate":"1.0953344","discount":"2.000","currency_send":"EUR","currency_get":"JOD","country_send_name":"France","country_send_code":"FR","country_get_name":"Jordan","country_get_code":"JO"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money/receiver","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":""},"_time_zone":120},"data":{"next_page":"web/send_money/review","grid":{"type":"one_column","header":"HeaderSend","components":{"center":["web/send_money/review"]}},"forms":[{"type":"body","title":"Review and confirm","sections":[{"header":[{"type":"Review","id":"divider_50716","class":"divider"}],"footer":[],"content":[]},{"header":[],"footer":[],"content":[{"value":"[br]For all transfers, receiver may receive less due to foreign taxes. [br] For transfers to a bank account, receiver may also receive less due to fees charged by the receiver's bank.[br] [b]Important:[/b] Western Union relies on the information you provide us to send money. Please review and confirm money transfer information before completing your transfer.[br] If you're sending money to a bank account, please make sure the account number, bank details, and currency selected are correct before sending. If the account number or bank details are incorrect, money may be sent to the wrong bank account and may not be recovered.","id":"label_39439","class":"label","align":"left"}]},{"header":[],"footer":[{"title":"I agree to the [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]Western Union terms of service[/url] and [url=https://www.westernunion.com/jo/en/legal/privacy-statement.html]online privacy statement[/url].","required":true,"regexp":"^(true)$","id":"i_enroll","error_msg":"Please confirm agreement","class":"check"},{"visibility":"disabled","value":"submit","type":"submit","title":"Continue","id":"button_submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"cancel_btn","class":"button"}],"content":[{"value":"[b]Protect Yourself from Fraud[/b][br] Only use Western Union to send money to friends and family. Never send money to someone you have not met in person.\nScammers sometimes encourage people to transfer money. Do not transfer money to anyone who asks you to send them money: [ul][*]For an emergency situation you haven’t confirmed.[/*][*]For an online purchase.[/*][*]For anti‐virus protection.[/*][*]For a deposit or payment on a rental property.[/*][*]To claim lottery or prize winnings.[/*][*]To pay taxes.[/*][*]For a donation to charity.[/*][*]For a mystery shopping assignment.[/*][*]For a job opportunity.[/*][*]For a credit card or loan fee.[/*][*]To resolve an immigration matter.[/*][/ul]If you transfer money, the person you’re sending it to gets the money quickly. After the money is paid, Western Union may not be able to give you a refund, even if you are the victim of fraud, except under limited circumstances. [p]If you believe that you are the victim of fraud, call the Western Union Fraud Hotline at 0800 22713 (landline only)[/p][p][url=https://www.westernunion.com/jo/en/fraud-awareness.html]Find out more about fraud protection here.[/url][/p]","id":"label_58802","class":"label","align":"left"}]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/review"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","id":"web/send_money/review","data":{"i_enroll":true,"temporary_expander":true,"button_submit":"submit"}}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":0,"mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment_result":{"received_as":"Cash at a WU agent location","transaction_date":"1603728564","wu_product":{"name":"STAGE AND PAY","code":"000"},"promocode":"A1588","mywu":{"total_points":0,"points_earned":0,"mywu":"191807406"},"test_question_flag":"N","currency_get":"JOD","id":125789,"mywu_points_earned":0,"user_id":"125786","fundsin":"stage_and_pay","exchange_rate":"1.0953344","hostBasedTaxes":"N","unit":"1.000","expected_payout_amount":"12.05","country_send_name":"France","sender_first_name":"Oleksii","fin_amount":1100,"oper":"skip","country_get_code":"JO","fin_type_amount":"originators_principal_amount","api_type":"AIS","status":"STAGED","payment_id":"","principal_amount":"11.000","discount":"2.000","transaction_id":"2030087569055650","mtcn":"7569055650","transaction_type":"WMN","contact_id":125788,"country_send_code":"FR","payment_digest":"03650109AJO159990020411000301004036OZ0503FRZ06030000703FRZ0803WMN09000364100919180740612032001301014010150413001603200170101901020002101N0312220023002400","fee":"0.000","fundsout":"cash","taxes":[{"tax_rate":0},{"municipal_tax":0},{"state_tax":0},{"county_tax":0},{"tax_worksheet":""}],"amount_send":"","gross_amount":"11.000","country_get_name":"Jordan","currency_send":"EUR","pay_status":"SUCCESS","_error":"ok","staging_profile_account":"AJO190011","mywu_total_points":0,"staging_buffer":"0101O0202WB0303JOR0709AJO190011","amount_get":"11","c":0.43108144330346354,"transaction_date_fmt":"26/10/2020 18:09:24","service_pay":"In minutes","payment_by":"Pay cash in store","sender_last_name":"Merzliakov","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125788","purpose":"Hospitalization &amp; Medical Treatment","phone_obj":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"delivery_services":{"routing_code":"WADSFR000","payment_digest":"03650109AJO190030020411000301004036SP0503FRZ06030000703FRZ0803WMN09000355100012032001301014010150413001603200170101901020002101N0312220023002400","information":"MONEY IN MINUTES","code":"000"},"ss_score":0.43108144330346354,"error_reason":"","purpose":"Hospitalization &amp; Medical Treatment"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money/review","phone_verified":"true","page_name":"/send_money/review","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":"2030087569055650"},"_time_zone":120},"data":{"next_page":"web/send_money/success","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/send_money/success"]}},"forms":[{"type":"body","title":"Confirmation","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"type":"SAP","id":"divider_1","extra":{"title":"Complete this transfer by","email_details":"Details below also sent to alex_nusjzfooh@gmail.com","date":{"time":"06:09 pm","day":"tomorrow"}},"class":"divider"},{"w":1,"url":"/static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Bring [b]11.000 JOD[/b] cash and your [b]photo ID[/b] to a JKB location","row":"1","id":"label_72752","class":"label"},{"w":1,"url":"/static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"Tell the agent you started this transaction online using your phone [b](380)718492306[/b]","row":"2","id":"label_72754","class":"label"},{"w":3.5,"url":"/static/warning.svg","row":"3","id":"warning_image","class":"image","align":"right"},{"w":6.5,"value":"This service is only available at JKB locations [br][br] Click \"Find a participating location\" below and narrow your search by selecting \"Pay for Transfers Started on App\" to see locations where you can pay for this transfer.","row":"3","id":"label_72757","class":"label","align":"left"},{"visibility":"visible","value":"location","type":"redirectBlank","title":"Find a participating location","id":"button_location","extra":{"url":"https://locations.westernunion.com/?searchType=addr&amp;locale=en_JO&amp;stageAndPay=T"},"class":"button"},{"value":"*To make any changes or cancel, please call us at Jordan Kuwait Bank 96265629400 or ext. 2213 2231 (08:00 – 15:30)","id":"label_72754","class":"label","align":"center"}]},{"header":[{"type":"Review","id":"divider_98048","class":"divider"}],"footer":[{"visibility":"visible","type":"submit","title":"Start another transaction","id":"submit","class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/success"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","value":"zatoch@ukr.net","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","value":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"}]},"code":0}</t>
+  </si>
+  <si>
+    <t>{"token":"4fdbf86dbac12fefcfe682e5ad6b484531964a4fce76e6ea38d5dfe32d33b50d","page":"web/send_money/success"}</t>
+  </si>
+  <si>
+    <t>{"status":"ok","sessionData":{"user":{"phone_verified":true,"new_user":true,"mywu_registration_date":"10 / 26 / 2020","mywu_points_earned":0,"mywu_link":"https://www.mywustage.com/api/v2/login?ln=Merzliakov&amp;id=191807406&amp;cc=jo&amp;r=https%3A%2F%2Fwww.mywustage.com%2Fjo%2Frewards%3Flang%3Den%26utm_source%3Dwu-web%26utm_channel%3Drewards","mywu_error":false,"mywu":"191807406","last_name":"Merzliakov","id_issuer_date":"1975-01-01","first_name":"Oleksii","currencies":["JOD"],"country_name":"Jordan","country_code":"JO","account_verified":true},"timeout":900,"payment_result":{"received_as":"Cash at a WU agent location","transaction_date":"1603728564","wu_product":{"name":"STAGE AND PAY","code":"000"},"promocode":"A1588","mywu":{"total_points":0,"points_earned":0,"mywu":"191807406"},"test_question_flag":"N","currency_get":"JOD","id":125789,"mywu_points_earned":0,"user_id":"125786","fundsin":"stage_and_pay","exchange_rate":"1.0953344","hostBasedTaxes":"N","unit":"1.000","expected_payout_amount":"12.05","country_send_name":"France","sender_first_name":"Oleksii","fin_amount":1100,"oper":"skip","country_get_code":"JO","fin_type_amount":"originators_principal_amount","api_type":"AIS","status":"STAGED","payment_id":"","principal_amount":"11.000","discount":"2.000","transaction_id":"2030087569055650","mtcn":"7569055650","transaction_type":"WMN","contact_id":125788,"country_send_code":"FR","payment_digest":"03650109AJO159990020411000301004036OZ0503FRZ06030000703FRZ0803WMN09000364100919180740612032001301014010150413001603200170101901020002101N0312220023002400","fee":"0.000","fundsout":"cash","taxes":[{"tax_rate":0},{"municipal_tax":0},{"state_tax":0},{"county_tax":0},{"tax_worksheet":""}],"amount_send":"","gross_amount":"11.000","country_get_name":"Jordan","currency_send":"EUR","pay_status":"SUCCESS","_error":"ok","staging_profile_account":"AJO190011","mywu_total_points":0,"staging_buffer":"0101O0202WB0303JOR0709AJO190011","amount_get":"11","c":0.43108144330346354,"transaction_date_fmt":"26/10/2020 18:09:24","service_pay":"In minutes","payment_by":"Pay cash in store","sender_last_name":"Merzliakov","receiver":{"temporary_expander":"true","template_type":"","state":"","receivers":"125788","purpose":"Hospitalization &amp; Medical Treatment","phone_obj":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"phone":"mob-380-979057288","nationality":"AI","middle_name":"","last_name":"qew","first_name":"qwe","fio":"qweqew","expander":"true","email":"zatoch@ukr.net","city_mx":"","city":"","button_submit":"submit"},"delivery_services":{"routing_code":"WADSFR000","payment_digest":"03650109AJO190030020411000301004036SP0503FRZ06030000703FRZ0803WMN09000355100012032001301014010150413001603200170101901020002101N0312220023002400","information":"MONEY IN MINUTES","code":"000"},"ss_score":0.43108144330346354,"error_reason":"","purpose":"Hospitalization &amp; Medical Treatment"},"login":"alex_nusjzfooh@gmail.com","limits":["Bank transfer limits:","6 700.000 JOD per transaction;","6 700.000 JOD per day;","14 000.000 JOD per month"," ","Pay cash in-store limits:","3 500.000 JOD per transaction;"],"id":"125786","auth":true,"amplitude":{"wu_language":"en","transfer_fee_currency":"JOD","transfer_fee":"0.000","sender_country":"jo","send_currency":"JOD","send_amount":"11.000","receiver_country":"FR","receive_currency":"EUR","receive_amount":"12.05","previous_page":"/send_money/review","phone_verified":"true","page_name":"/send_money/success","marketing_opt-in":true,"logged_in":"true","funds_out":"cash","funds_in":"stage_and_pay","exchange_rate":"1.0953344","account_verified":"true","account_id":"125786","TransactionID":"2030087569055650"},"_time_zone":120},"data":{"next_page":"web/send_money/success","grid":{"type":"one_column","header":"HeaderStart","components":{"center":["web/send_money/success"]}},"forms":[{"type":"body","title":"Confirmation","sections":[{"visibility":"visible","header":[],"footer":[],"content":[{"type":"SAP","id":"divider_1","extra":{"title":"Complete this transfer by","email_details":"Details below also sent to alex_nusjzfooh@gmail.com","date":{"time":"06:09 pm","day":"tomorrow"}},"class":"divider"},{"w":1,"url":"/static/sap/sap_n1.svg","row":"1","id":"sap_n1","class":"image","align":"center"},{"w":9,"value":"Bring [b]11.000 JOD[/b] cash and your [b]photo ID[/b] to a JKB location","row":"1","id":"label_72752","class":"label"},{"w":1,"url":"/static/sap/sap_n2.svg","row":"2","id":"sap_n2","class":"image","align":"center"},{"w":9,"value":"Tell the agent you started this transaction online using your phone [b](380)718492306[/b]","row":"2","id":"label_72754","class":"label"},{"w":3.5,"url":"/static/warning.svg","row":"3","id":"warning_image","class":"image","align":"right"},{"w":6.5,"value":"This service is only available at JKB locations [br][br] Click \"Find a participating location\" below and narrow your search by selecting \"Pay for Transfers Started on App\" to see locations where you can pay for this transfer.","row":"3","id":"label_72757","class":"label","align":"left"},{"visibility":"visible","value":"location","type":"redirectBlank","title":"Find a participating location","id":"button_location","extra":{"url":"https://locations.westernunion.com/?searchType=addr&amp;locale=en_JO&amp;stageAndPay=T"},"class":"button"},{"value":"*To make any changes or cancel, please call us at Jordan Kuwait Bank 96265629400 or ext. 2213 2231 (08:00 – 15:30)","id":"label_72754","class":"label","align":"center"}]},{"header":[{"type":"Review","id":"divider_98048","class":"divider"}],"footer":[{"visibility":"visible","type":"submit","title":"Start another transaction","id":"submit","class":"button"}],"content":[]},{"id":"sections_legal","header":[{"visibility":"visible","value":true,"title":"Legal disclaimers and important info:","id":"temporary_expander","extra":{"toggleVisible":"adaptive"},"class":"expander","actions":[{"value":true,"type":"on","oper":"toggleVisible","items":["disclaimer1","disclaimer2","disclaimer6","disclaimer7","disclaimer8",""],"id":"expander_disclaimers","class":"expander"}]},{"visibility":"hidden","value":"[size=11][color=#767676][sup]1[/sup]Service and funds may be delayed or unavailable depending on certain factors including the Service selected, the selection of delayed delivery options, amount sent, destination country, currency availability, regulatory issues, consumer protection issues, identification requirements, delivery restrictions, agent location hours, and differences in time zones (collectively, \"Restrictions\").  Additional restrictions may apply. See [url=https://www.westernunion.com/jo/en/legal/terms-conditions.html]online terms and conditions[/url] for details.[/color][/size]","id":"disclaimer1","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]2[/sup] Western Union also makes money from currency exchange. When choosing a money transmitter, carefully compare both transfer fees and exchange rates. Fees and foreign exchange rates may vary by brand, channel and location based on a number of factors. Fees and rates subject to change without notice. Subject to applicable taxes (if any). Money transfers sent to Lebanon are subject to a 2% cash handling fee which will be collected from the principal amount during payout in USD at the agent location. [/color][/size]","id":"disclaimer2","class":"label"},{"visibility":"hidden","value":"@{expander_label_3}","id":"disclaimer3","class":"label"},{"visibility":"hidden","value":"@{expander_label_4}","id":"disclaimer4","class":"label"},{"visibility":"hidden","value":"@{expander_label_5}","id":"disclaimer5","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]6[/sup] Your Receiver can pick up your money transfer at any of our Agent Locations in France[/color][/size]","id":"disclaimer6","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]7[/sup] Please type exact receiver’s name as it appears on his/her ID. They will need to present this ID to pick up the funds.[/color][/size]","id":"disclaimer7","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]8[/sup] Reduced transfer fee shall take effect from April 2019. Western Union has a right to cancel or extend campaign without additional notice.[/color][/size]","id":"disclaimer8","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]9[/sup] The transaction will be released only if the payment is received between 8:00 AM &amp; 3:30 PM during bank working days; Any transfers which are done thereafter will be only released on the next working day.[/color][/size]","id":"disclaimer9","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]10[/sup] Please use care when providing bank account information. Funds will be paid into in the bank account corresponding to account number you provide. Please Note: The receiver's account must be a local currency payout account.[/color][/size]","id":"disclaimer10","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]11[/sup] Excludes receiver's bank holidays.[/color][/size]","id":"disclaimer11","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]12[/sup] Please use care when providing bank account and/or eWallet information ; funds will be paid into the bank or eWallet account corresponding to the information you provide. Please note: the Receiver’s bank /eWallet account must be a local currency payout account. Additional charges, including SMS and account cash-out fees, may be applied to the Final Receiver's mobile wallet account by the mobile network operator.[/color][/size]","id":"disclaimer12","class":"label"},{"visibility":"hidden","value":"[size=11][color=#767676][sup]14[/sup] The actual exchange rate and your total amount will be determined at the time of payout.[/color][/size]","id":"disclaimer14","class":"label"},{"visibility":"hidden","value":"@{expander_label_a}","id":"disclaimer_a","class":"label"},{"visibility":"hidden","value":"@{expander_label_b}","id":"disclaimer_b","class":"label"},{"type":"Partners","id":"divider_11148","class":"divider"}],"footer":[],"content":[]}],"id":"web/send_money/success"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"email","options":[{"value":"email","title":"E-mail"},{"value":"sms","title":"SMS"}],"id":"tabs","class":"tabs","align":"center","actions":[{"url":"/items/validate_share","oper":"validate"}]},{"visibility":"visible","value":"zatoch@ukr.net","type":"email","title":"Email address","required":true,"regexp":"^[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+(?:\\.[-A-Z-a-z0-9!#$%&amp;'*+/=?^_`{|}~@]+)*@(?:[a-z0-9]([-a-z0-9]{0,61}[a-z0-9])?\\.)*(?:aero|arpa|asia|biz|cat|com|coop|edu|gov|info|int|jobs|mil|mobi|museum|name|net|org|pro|tel|travel|[a-z][a-z])$","id":"email","error_msg":"Please check email","class":"edit","actions":[]},{"visibility":"hidden","value":{"type":"mob","plus":"+","number":"979057288","country_code":"380"},"required":true,"regexp":"^mob-[0-9]{1,4}-[0-9]{4,17}$","options":[{"value":"1","title":"1"},{"value":"1242","title":"1242"},{"value":"1246","title":"1246"},{"value":"1264","title":"1264"},{"value":"1268","title":"1268"},{"value":"1284","title":"1284"},{"value":"1340","title":"1340"},{"value":"1345","title":"1345"},{"value":"1441","title":"1441"},{"value":"1473","title":"1473"},{"value":"1599","title":"1599"},{"value":"1649","title":"1649"},{"value":"1658","title":"1658"},{"value":"1664","title":"1664"},{"value":"1670","title":"1670"},{"value":"1671","title":"1671"},{"value":"1684","title":"1684"},{"value":"1721","title":"1721"},{"value":"1758","title":"1758"},{"value":"1767","title":"1767"},{"value":"1784","title":"1784"},{"value":"1787","title":"1787"},{"value":"1809","title":"1809"},{"value":"1829","title":"1829"},{"value":"1849","title":"1849"},{"value":"1868","title":"1868"},{"value":"1869","title":"1869"},{"value":"1876","title":"1876"},{"value":"1939","title":"1939"},{"value":"20","title":"20"},{"value":"211","title":"211"},{"value":"212","title":"212"},{"value":"213","title":"213"},{"value":"216","title":"216"},{"value":"218","title":"218"},{"value":"220","title":"220"},{"value":"221","title":"221"},{"value":"222","title":"222"},{"value":"223","title":"223"},{"value":"224","title":"224"},{"value":"225","title":"225"},{"value":"226","title":"226"},{"value":"227","title":"227"},{"value":"228","title":"228"},{"value":"229","title":"229"},{"value":"230","title":"230"},{"value":"231","title":"231"},{"value":"232","title":"232"},{"value":"233","title":"233"},{"value":"234","title":"234"},{"value":"235","title":"235"},{"value":"236","title":"236"},{"value":"237","title":"237"},{"value":"238","title":"238"},{"value":"239","title":"239"},{"value":"240","title":"240"},{"value":"241","title":"241"},{"value":"242","title":"242"},{"value":"243","title":"243"},{"value":"244","title":"244"},{"value":"245","title":"245"},{"value":"246","title":"246"},{"value":"247","title":"247"},{"value":"248","title":"248"},{"value":"249","title":"249"},{"value":"250","title":"250"},{"value":"251","title":"251"},{"value":"252","title":"252"},{"value":"253","title":"253"},{"value":"254","title":"254"},{"value":"255","title":"255"},{"value":"256","title":"256"},{"value":"257","title":"257"},{"value":"258","title":"258"},{"value":"260","title":"260"},{"value":"261","title":"261"},{"value":"262","title":"262"},{"value":"263","title":"263"},{"value":"264","title":"264"},{"value":"265","title":"265"},{"value":"266","title":"266"},{"value":"267","title":"267"},{"value":"268","title":"268"},{"value":"269","title":"269"},{"value":"27","title":"27"},{"value":"284","title":"284"},{"value":"290","title":"290"},{"value":"291","title":"291"},{"value":"297","title":"297"},{"value":"298","title":"298"},{"value":"299","title":"299"},{"value":"30","title":"30"},{"value":"31","title":"31"},{"value":"32","title":"32"},{"value":"33","title":"33"},{"value":"34","title":"34"},{"value":"345","title":"345"},{"value":"350","title":"350"},{"value":"351","title":"351"},{"value":"352","title":"352"},{"value":"353","title":"353"},{"value":"354","title":"354"},{"value":"355","title":"355"},{"value":"356","title":"356"},{"value":"357","title":"357"},{"value":"358","title":"358"},{"value":"359","title":"359"},{"value":"36","title":"36"},{"value":"370","title":"370"},{"value":"371","title":"371"},{"value":"372","title":"372"},{"value":"373","title":"373"},{"value":"374","title":"374"},{"value":"375","title":"375"},{"value":"376","title":"376"},{"value":"377","title":"377"},{"value":"378","title":"378"},{"value":"379","title":"379"},{"value":"380","title":"380"},{"value":"381","title":"381"},{"value":"382","title":"382"},{"value":"383","title":"383"},{"value":"385","title":"385"},{"value":"386","title":"386"},{"value":"387","title":"387"},{"value":"389","title":"389"},{"value":"39","title":"39"},{"value":"40","title":"40"},{"value":"41","title":"41"},{"value":"420","title":"420"},{"value":"421","title":"421"},{"value":"423","title":"423"},{"value":"43","title":"43"},{"value":"44","title":"44"},{"value":"45","title":"45"},{"value":"46","title":"46"},{"value":"47","title":"47"},{"value":"473","title":"473"},{"value":"48","title":"48"},{"value":"49","title":"49"},{"value":"500","title":"500"},{"value":"501","title":"501"},{"value":"502","title":"502"},{"value":"503","title":"503"},{"value":"504","title":"504"},{"value":"505","title":"505"},{"value":"506","title":"506"},{"value":"507","title":"507"},{"value":"508","title":"508"},{"value":"509","title":"509"},{"value":"51","title":"51"},{"value":"52","title":"52"},{"value":"53","title":"53"},{"value":"54","title":"54"},{"value":"55","title":"55"},{"value":"56","title":"56"},{"value":"57","title":"57"},{"value":"58","title":"58"},{"value":"590","title":"590"},{"value":"591","title":"591"},{"value":"592","title":"592"},{"value":"593","title":"593"},{"value":"594","title":"594"},{"value":"595","title":"595"},{"value":"596","title":"596"},{"value":"597","title":"597"},{"value":"598","title":"598"},{"value":"599","title":"599"},{"value":"60","title":"60"},{"value":"61","title":"61"},{"value":"62","title":"62"},{"value":"63","title":"63"},{"value":"64","title":"64"},{"value":"65","title":"65"},{"value":"658","title":"658"},{"value":"66","title":"66"},{"value":"670","title":"670"},{"value":"671","title":"671"},{"value":"672","title":"672"},{"value":"673","title":"673"},{"value":"674","title":"674"},{"value":"675","title":"675"},{"value":"676","title":"676"},{"value":"677","title":"677"},{"value":"678","title":"678"},{"value":"679","title":"679"},{"value":"680","title":"680"},{"value":"681","title":"681"},{"value":"682","title":"682"},{"value":"683","title":"683"},{"value":"684","title":"684"},{"value":"685","title":"685"},{"value":"686","title":"686"},{"value":"687","title":"687"},{"value":"688","title":"688"},{"value":"689","title":"689"},{"value":"690","title":"690"},{"value":"691","title":"691"},{"value":"692","title":"692"},{"value":"7","title":"7"},{"value":"767","title":"767"},{"value":"809","title":"809"},{"value":"81","title":"81"},{"value":"82","title":"82"},{"value":"84","title":"84"},{"value":"850","title":"850"},{"value":"852","title":"852"},{"value":"853","title":"853"},{"value":"855","title":"855"},{"value":"856","title":"856"},{"value":"86","title":"86"},{"value":"869","title":"869"},{"value":"876","title":"876"},{"value":"880","title":"880"},{"value":"886","title":"886"},{"value":"90","title":"90"},{"value":"91","title":"91"},{"value":"92","title":"92"},{"value":"93","title":"93"},{"value":"94","title":"94"},{"value":"95","title":"95"},{"value":"960","title":"960"},{"value":"961","title":"961"},{"value":"962","title":"962"},{"value":"963","title":"963"},{"value":"964","title":"964"},{"value":"965","title":"965"},{"value":"966","title":"966"},{"value":"967","title":"967"},{"value":"968","title":"968"},{"value":"970","title":"970"},{"value":"971","title":"971"},{"value":"972","title":"972"},{"value":"973","title":"973"},{"value":"974","title":"974"},{"value":"975","title":"975"},{"value":"976","title":"976"},{"value":"977","title":"977"},{"value":"98","title":"98"},{"value":"992","title":"992"},{"value":"993","title":"993"},{"value":"994","title":"994"},{"value":"995","title":"995"},{"value":"996","title":"996"},{"value":"998","title":"998"}],"id":"phone","error_msg":"Please check phone number. It should contain from 7 to 14 digits","class":"phone"},{"visibility":"disabled","value":"continue","type":"submit","title":"Continue","id":"submit","class":"button"},{"visibility":"visible","value":"cancel","type":"cancel","title":"Cancel","id":"button_no","class":"button"}]}],"id":"web/send_money/success/show_share"},{"type":"modal","title":"","sections":[{"header":[],"footer":[],"content":[{"value":"Don't share your tracking number (MTCN) with strangers or on social media.","class":"label","align":"center"},{"visibility":"visible","value":"continue","type":"submit","title":"Ok","id":"submit","class":"button","actions":[{"url":"/items/show_share","style":{"height":450},"oper":"modal"}]}]}],"id":"web/send_money/success/att_share"}]},"code":0}</t>
   </si>
 </sst>
 </file>
